--- a/public/tmp/reportStatus.xlsx
+++ b/public/tmp/reportStatus.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243">
   <si>
     <t>#</t>
   </si>
@@ -98,124 +98,112 @@
     <t>B รอประกันอนุมัติ</t>
   </si>
   <si>
-    <t>Z067102549</t>
-  </si>
-  <si>
-    <t>2024-03-27</t>
+    <t>67708/รจ/000692</t>
+  </si>
+  <si>
+    <t>2024-06-26</t>
   </si>
   <si>
     <t>0000-00-00</t>
   </si>
   <si>
+    <t>เลยกำหนด</t>
+  </si>
+  <si>
+    <t>3ขด5695</t>
+  </si>
+  <si>
+    <t>GWM</t>
+  </si>
+  <si>
+    <t>สิทธิศักดิ์ กังสกุล</t>
+  </si>
+  <si>
+    <t>M-กลาง</t>
+  </si>
+  <si>
+    <t>Z067211695</t>
+  </si>
+  <si>
+    <t>2024-06-27</t>
+  </si>
+  <si>
+    <t>กพ7901</t>
+  </si>
+  <si>
+    <t>MITSUBISHI</t>
+  </si>
+  <si>
+    <t>พัชรินทร์ ชุมนาค</t>
+  </si>
+  <si>
+    <t>L-เบา</t>
+  </si>
+  <si>
+    <t>Z067208171</t>
+  </si>
+  <si>
+    <t>2024-06-28</t>
+  </si>
+  <si>
+    <t>ก3437</t>
+  </si>
+  <si>
+    <t>BYD</t>
+  </si>
+  <si>
+    <t>Z067214465</t>
+  </si>
+  <si>
+    <t>2024-06-29</t>
+  </si>
+  <si>
     <t>ปกติ</t>
   </si>
   <si>
-    <t>4ขศ5845</t>
-  </si>
-  <si>
-    <t>MITSUBISHI</t>
-  </si>
-  <si>
-    <t>สิทธิศักดิ์ กังสกุล</t>
-  </si>
-  <si>
-    <t>M-กลาง</t>
-  </si>
-  <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>บม9872</t>
-  </si>
-  <si>
-    <t>L-เบา</t>
-  </si>
-  <si>
-    <t>Z067107398</t>
-  </si>
-  <si>
-    <t>ก2173</t>
+    <t>บร3406</t>
+  </si>
+  <si>
+    <t>Z067216645</t>
+  </si>
+  <si>
+    <t>2024-07-02</t>
+  </si>
+  <si>
+    <t>บม7013</t>
+  </si>
+  <si>
+    <t>Z067216680</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>กธ2286</t>
+  </si>
+  <si>
+    <t>Z067219194</t>
+  </si>
+  <si>
+    <t>กพ5052</t>
+  </si>
+  <si>
+    <t>67701/รจ/011377</t>
+  </si>
+  <si>
+    <t>กธ737</t>
   </si>
   <si>
     <t>ศุภวัฒน์ หลานเด็น</t>
   </si>
   <si>
-    <t>I00000000...</t>
-  </si>
-  <si>
-    <t>2024-03-30</t>
-  </si>
-  <si>
-    <t>กพ3160</t>
-  </si>
-  <si>
-    <t>Z067106411</t>
-  </si>
-  <si>
-    <t>บร453</t>
-  </si>
-  <si>
-    <t>2024-04-01</t>
-  </si>
-  <si>
-    <t>กต3852</t>
-  </si>
-  <si>
-    <t>F067082194</t>
-  </si>
-  <si>
-    <t>บม9480</t>
-  </si>
-  <si>
-    <t>F066182923</t>
-  </si>
-  <si>
-    <t>กบ6504</t>
-  </si>
-  <si>
-    <t>Z067110670</t>
-  </si>
-  <si>
-    <t>67701/รจ/004915</t>
-  </si>
-  <si>
-    <t>3ขฎ4032</t>
+    <t>Z067218805</t>
+  </si>
+  <si>
+    <t>2ฒฮ1556</t>
   </si>
   <si>
     <t>C ประกันอนุมัติ</t>
-  </si>
-  <si>
-    <t>wfwff</t>
-  </si>
-  <si>
-    <t>svsvsvwvwv</t>
-  </si>
-  <si>
-    <t>NISSAN</t>
-  </si>
-  <si>
-    <t>afwwf</t>
-  </si>
-  <si>
-    <t>wfwffaddada</t>
-  </si>
-  <si>
-    <t>I23123062</t>
-  </si>
-  <si>
-    <t>2023-12-26</t>
-  </si>
-  <si>
-    <t>2023-12-18</t>
-  </si>
-  <si>
-    <t>กธ5427</t>
-  </si>
-  <si>
-    <t>TOYOTA</t>
-  </si>
-  <si>
-    <t>ลูกค้าประสงค์ขอรถใช้งาน</t>
   </si>
   <si>
     <t>Z067039619</t>
@@ -236,324 +224,235 @@
     <t>09-02-2567 ลูกค้าไม่รับสาย
 14-2-2567 ลูกค้าไม่รับสาย
 21-02-2567 ลูกค้าไม่รับสาย
-01-03-2567 ลูกค้าไม่รับสาย</t>
-  </si>
-  <si>
-    <t>Z066318507</t>
-  </si>
-  <si>
-    <t>2024-02-29</t>
-  </si>
-  <si>
-    <t>2024-02-22</t>
-  </si>
-  <si>
-    <t>2024-02-27</t>
-  </si>
-  <si>
-    <t>ขฉ9375</t>
-  </si>
-  <si>
-    <t>มี 2เคลม
-เคลม 2 รอสั่งอะไหล่(เนื่องจากลูกค้ายังไม่มีกำหนดเข้าซ่อม)</t>
+01-03-2567 ลูกค้าไม่รับสาย
+18/4/2567 ไม่สะดวกเข้า (รถศรีเจริญ)
+30/5/2567 ลูกค้าไม่มีรถสำรองใช่</t>
+  </si>
+  <si>
+    <t>Z067200663</t>
+  </si>
+  <si>
+    <t>2024-06-20</t>
+  </si>
+  <si>
+    <t>2024-06-18</t>
+  </si>
+  <si>
+    <t>2024-06-19</t>
+  </si>
+  <si>
+    <t>7กด4315</t>
+  </si>
+  <si>
+    <t>มี2เเคลม รอลูกค้าติดต่อกลับ</t>
+  </si>
+  <si>
+    <t>F067182116</t>
+  </si>
+  <si>
+    <t>2024-06-24</t>
+  </si>
+  <si>
+    <t>5ขจ3562</t>
+  </si>
+  <si>
+    <t>เข้าซ่อมวันที่ 03/07/2567</t>
+  </si>
+  <si>
+    <t>D รออะไหล่</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>2024-04-03</t>
+  </si>
+  <si>
+    <t>บม9872</t>
+  </si>
+  <si>
+    <t>มีส่วนต่าง รอลูกค้าตัดสินใจ
+สั่งอะไหล่แล้ว 26/6/67</t>
+  </si>
+  <si>
+    <t>08982664</t>
+  </si>
+  <si>
+    <t>2024-05-30</t>
+  </si>
+  <si>
+    <t>2024-05-28</t>
+  </si>
+  <si>
+    <t>ขค7679</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>ประกันจัดอะไหล่</t>
+  </si>
+  <si>
+    <t>ACD401-24-2-104202</t>
+  </si>
+  <si>
+    <t>2024-06-11</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>2024-06-10</t>
+  </si>
+  <si>
+    <t>กว3243</t>
+  </si>
+  <si>
+    <t>AB0923B004953</t>
+  </si>
+  <si>
+    <t>2024-06-25</t>
+  </si>
+  <si>
+    <t>กพ767</t>
+  </si>
+  <si>
+    <t>รถ BYDจัดอะไหล่</t>
+  </si>
+  <si>
+    <t>F067198990</t>
+  </si>
+  <si>
+    <t>F067198853</t>
+  </si>
+  <si>
+    <t>กบ5366</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>ACD401-24-2-102070</t>
-  </si>
-  <si>
-    <t>2024-03-28</t>
-  </si>
-  <si>
-    <t>2ฒต529</t>
-  </si>
-  <si>
-    <t>29-04-2567 รอลูกค้าติดต่อกลับ</t>
-  </si>
-  <si>
-    <t>D รออะไหล่</t>
-  </si>
-  <si>
-    <t>12121vfef</t>
-  </si>
-  <si>
-    <t>บก81902</t>
-  </si>
-  <si>
-    <t>dfqffe</t>
-  </si>
-  <si>
-    <t>12121vfefcavvsv</t>
-  </si>
-  <si>
-    <t>12121vfefcavvsv24224</t>
-  </si>
-  <si>
-    <t>12121vfefcavvsv242242322</t>
-  </si>
-  <si>
-    <t>SUZUKI</t>
-  </si>
-  <si>
-    <t>ffefe</t>
-  </si>
-  <si>
-    <t>F067035768</t>
-  </si>
-  <si>
-    <t>2024-02-02</t>
-  </si>
-  <si>
-    <t>2024-02-06</t>
-  </si>
-  <si>
-    <t>มี 2 เคลม</t>
-  </si>
-  <si>
-    <t>Z067052163</t>
-  </si>
-  <si>
-    <t>2024-02-15</t>
+    <t>ACD404-24-2-101256</t>
+  </si>
+  <si>
+    <t>กท4137</t>
+  </si>
+  <si>
+    <t>HONDA</t>
+  </si>
+  <si>
+    <t>F067204419</t>
+  </si>
+  <si>
+    <t>2024-06-21</t>
+  </si>
+  <si>
+    <t>กพ5771</t>
+  </si>
+  <si>
+    <t>DC7067003048</t>
+  </si>
+  <si>
+    <t>2024-06-22</t>
+  </si>
+  <si>
+    <t>กน766</t>
+  </si>
+  <si>
+    <t>DC7067002818</t>
+  </si>
+  <si>
+    <t>กพ7642</t>
+  </si>
+  <si>
+    <t>67709/รจ/003425</t>
+  </si>
+  <si>
+    <t>กบ5188</t>
+  </si>
+  <si>
+    <t>Z067058342</t>
+  </si>
+  <si>
+    <t>4ขก3041</t>
+  </si>
+  <si>
+    <t>Z067181701</t>
+  </si>
+  <si>
+    <t>กพ2760</t>
+  </si>
+  <si>
+    <t>Z067208858</t>
+  </si>
+  <si>
+    <t>กพ6525</t>
+  </si>
+  <si>
+    <t>ประกันจัดอะไหล่26/6</t>
+  </si>
+  <si>
+    <t>Z067208512</t>
+  </si>
+  <si>
+    <t>กน1723</t>
+  </si>
+  <si>
+    <t>F067196526</t>
+  </si>
+  <si>
+    <t>I24063103</t>
+  </si>
+  <si>
+    <t>บร896</t>
+  </si>
+  <si>
+    <t>A00924V002708</t>
+  </si>
+  <si>
+    <t>กธ2325</t>
+  </si>
+  <si>
+    <t>Z067210888</t>
+  </si>
+  <si>
+    <t>กว4545</t>
+  </si>
+  <si>
+    <t>Z067210899</t>
+  </si>
+  <si>
+    <t>กพ3890</t>
+  </si>
+  <si>
+    <t>Z067211692</t>
+  </si>
+  <si>
+    <t>กน2464</t>
+  </si>
+  <si>
+    <t>67701/รจ/009076</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>กพ3789</t>
+  </si>
+  <si>
+    <t>67701/รจ/010622</t>
+  </si>
+  <si>
+    <t>มี2เคลม</t>
+  </si>
+  <si>
+    <t>E อะไหล่ครบ</t>
+  </si>
+  <si>
+    <t>Z067036981</t>
   </si>
   <si>
     <t>2024-02-12</t>
-  </si>
-  <si>
-    <t>2024-02-14</t>
-  </si>
-  <si>
-    <t>ณข958</t>
-  </si>
-  <si>
-    <t>ACD401-24-2-101388</t>
-  </si>
-  <si>
-    <t>2024-02-23</t>
-  </si>
-  <si>
-    <t>2024-02-20</t>
-  </si>
-  <si>
-    <t>กน2244</t>
-  </si>
-  <si>
-    <t>อะไหล่ติด B/O  2 รายการ</t>
-  </si>
-  <si>
-    <t>Z067081172</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>2024-03-08</t>
-  </si>
-  <si>
-    <t>3ฒว8084</t>
-  </si>
-  <si>
-    <t>F067083067</t>
-  </si>
-  <si>
-    <t>2024-03-21</t>
-  </si>
-  <si>
-    <t>2024-03-09</t>
-  </si>
-  <si>
-    <t>กพ5057</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>F066355072</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>บร464</t>
-  </si>
-  <si>
-    <t>08948965</t>
-  </si>
-  <si>
-    <t>2024-03-16</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
-    <t>บพ721</t>
-  </si>
-  <si>
-    <t>มีส่วนต่าง รอลูกค้าตัดสินใจ</t>
-  </si>
-  <si>
-    <t>Z067097880</t>
-  </si>
-  <si>
-    <t>2024-03-26</t>
-  </si>
-  <si>
-    <t>2024-03-25</t>
-  </si>
-  <si>
-    <t>กพ1071</t>
-  </si>
-  <si>
-    <t>67702/รจ/003686</t>
-  </si>
-  <si>
-    <t>2024-03-23</t>
-  </si>
-  <si>
-    <t>กพ6123</t>
-  </si>
-  <si>
-    <t>GWM</t>
-  </si>
-  <si>
-    <t>67709/รจ/002373</t>
-  </si>
-  <si>
-    <t>1ขศ6939</t>
-  </si>
-  <si>
-    <t>Z067102532</t>
-  </si>
-  <si>
-    <t>บย5254</t>
-  </si>
-  <si>
-    <t>67709/รจ/004660</t>
-  </si>
-  <si>
-    <t>กน3151</t>
-  </si>
-  <si>
-    <t>F067103177</t>
-  </si>
-  <si>
-    <t>กต8292</t>
-  </si>
-  <si>
-    <t>F067105768</t>
-  </si>
-  <si>
-    <t>บย7591</t>
-  </si>
-  <si>
-    <t>Z067105688</t>
-  </si>
-  <si>
-    <t>บย7171</t>
-  </si>
-  <si>
-    <t>F067101943</t>
-  </si>
-  <si>
-    <t>กน3736</t>
-  </si>
-  <si>
-    <t>67701/รจ/004790</t>
-  </si>
-  <si>
-    <t>กพ2328</t>
-  </si>
-  <si>
-    <t>Z067106955</t>
-  </si>
-  <si>
-    <t>ขค7829</t>
-  </si>
-  <si>
-    <t>2024-04-09</t>
-  </si>
-  <si>
-    <t>2024-04-23</t>
-  </si>
-  <si>
-    <t>2024-04-18</t>
-  </si>
-  <si>
-    <t>4dwwfw</t>
-  </si>
-  <si>
-    <t>HONDA</t>
-  </si>
-  <si>
-    <t>2024-04-24</t>
-  </si>
-  <si>
-    <t>csfeff</t>
-  </si>
-  <si>
-    <t>E อะไหล่ครบ</t>
-  </si>
-  <si>
-    <t>Z066351030</t>
-  </si>
-  <si>
-    <t>2023-11-06</t>
-  </si>
-  <si>
-    <t>2023-11-07</t>
-  </si>
-  <si>
-    <t>กธ916</t>
-  </si>
-  <si>
-    <t>ลูกค้าแจ้งเคลมในระบบก่อน ยังไม่สะดวกจอดซ่อม 
-เพราะต้องให้ส่งลูกค้าโรงเรียน
-21/3/2567 ลูกค้าไม่รับสาย
-เข้าซ่อมวันที่ 01-04-2567</t>
-  </si>
-  <si>
-    <t>F066388267</t>
-  </si>
-  <si>
-    <t>2024-01-17</t>
-  </si>
-  <si>
-    <t>2024-01-10</t>
-  </si>
-  <si>
-    <t>2024-01-11</t>
-  </si>
-  <si>
-    <t>ณข-962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">นัดเข้าซ่อม 22-1-67
-โทรมาเลื่อนนัดเป็นสัปดาห์ที่ 29/1/2567
-14-2-67 ยังไม่สะดวกเข้าซ่อม
-01-03-2567 เข้าซ่อมประมาณหลังสงการต์
-</t>
-  </si>
-  <si>
-    <t>I24016044</t>
-  </si>
-  <si>
-    <t>2024-01-26</t>
-  </si>
-  <si>
-    <t>2024-01-29</t>
-  </si>
-  <si>
-    <t>กท9578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">สั่งอะไหล่ร้านอาคม 2 รายการ 
-1.แผ่นกันรอยบนกันชนหลัง
-2.สเกิร์ตกันชนหลัง
-เข้าซ่อมวันที่ </t>
-  </si>
-  <si>
-    <t>Z067036981</t>
   </si>
   <si>
     <t>2024-01-31</t>
@@ -567,258 +466,316 @@
   <si>
     <t xml:space="preserve">12-2-67 เข้าซ่อมเดือนมีนาคม 2567
 01-03-2567 ลูกค้าไม่รับสาย
+18-03-2567 รอลูกค้าติดต่อกลับ
+03-04-2567 ลูกค้าไม่รับสาย
+18/4/2567 ลูกค้าไม่รับสาย
+03/05/2567 ลูกค้าไม่รับสาย
 </t>
   </si>
   <si>
     <t>66709/รจ/001743</t>
   </si>
   <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>2024-02-20</t>
+  </si>
+  <si>
     <t>3ขภ4638</t>
   </si>
   <si>
+    <t>22/3/2567 ลูกค้ายังไม่สะดวกเข้า
+18/4/2567 ลูกค้าไม่สะดวกเข้าเนื่องจากอยู่เกาะสมุย
+03/05/2567 ลูกค้าไม่สะดวกเข้าเนื่องจากอยู่เกาะสมุยเป็นลูกค้าฝรั่ง</t>
+  </si>
+  <si>
     <t>66709/รจ/001743.</t>
   </si>
   <si>
-    <t>27/2/2567 รอลูกค้าติดต่อกลับมานัดหมายอีกครั้ง</t>
-  </si>
-  <si>
-    <t>Z067066396</t>
-  </si>
-  <si>
-    <t>กน6237</t>
-  </si>
-  <si>
-    <t>เข้าซ่อมวันที่ 01-04-2567</t>
-  </si>
-  <si>
-    <t>Z067069038</t>
-  </si>
-  <si>
-    <t>เข้าซ่อมวันที่ 01-03-2567</t>
-  </si>
-  <si>
-    <t>Z067067310</t>
-  </si>
-  <si>
-    <t>2024-02-28</t>
-  </si>
-  <si>
-    <t>กธ82</t>
-  </si>
-  <si>
-    <t>F066372219</t>
-  </si>
-  <si>
-    <t>2024-03-18</t>
-  </si>
-  <si>
-    <t>2024-03-07</t>
-  </si>
-  <si>
-    <t>บย8016</t>
-  </si>
-  <si>
-    <t>รออะไหล่ตกแต่งประกันจัดอะไหล่
-18-03-2567 ติดต่อลูกค้าไม่ได้</t>
-  </si>
-  <si>
-    <t>Z067081068</t>
-  </si>
-  <si>
-    <t>2024-03-11</t>
-  </si>
-  <si>
-    <t>บร1423</t>
-  </si>
-  <si>
-    <t>18-03-2567 รอลูกค้าติดต่อกลับ
-27-03-2567 รอลูกค้าติดต่อกลับ</t>
-  </si>
-  <si>
-    <t>I24031030</t>
-  </si>
-  <si>
-    <t>2024-03-15</t>
-  </si>
-  <si>
-    <t>กน7350</t>
-  </si>
-  <si>
-    <t>เข้าซ่อมวันที่ 27-03-2567</t>
-  </si>
-  <si>
-    <t>ACD501-24-2-101961</t>
-  </si>
-  <si>
-    <t>บม9194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-03-2567 ลูกค้าไม่รับสาย
-เข้าซ่อมวันที่ 17-04-2567
+    <t>2024-02-27</t>
+  </si>
+  <si>
+    <t>27/2/2567 รอลูกค้าติดต่อกลับมานัดหมายอีกครั้ง
+22/3/2567 ลูกค้ายังไม่สะดวกเข้า
+18/4/2567 ลูกค้าไม่สะดวกเข้าเนื่องจากอยู่เกาะสมุย</t>
+  </si>
+  <si>
+    <t>67709/รจ/002756</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>2024-05-03</t>
+  </si>
+  <si>
+    <t>2024-05-08</t>
+  </si>
+  <si>
+    <t>กพ5446</t>
+  </si>
+  <si>
+    <t>28/05/2567 เดียวลูกค้าโมรมานัดอีกที
+30/05/2567 ลูกค้าติดต่อกลับ</t>
+  </si>
+  <si>
+    <t>Z067146886</t>
+  </si>
+  <si>
+    <t>2024-05-10</t>
+  </si>
+  <si>
+    <t>บม1071</t>
+  </si>
+  <si>
+    <t>2024-07-08</t>
+  </si>
+  <si>
+    <t>10-05-2567 รอลูกค้าติดต่อกลับ
+/เข้าซ่อมวันที่ 31-05-2567
+/20-06-2567 ลูกค้าไม่รับสาย
+/เข้าซ่อมวันที่ 08-07-2567</t>
+  </si>
+  <si>
+    <t>F067151003</t>
+  </si>
+  <si>
+    <t>2024-06-15</t>
+  </si>
+  <si>
+    <t>2024-05-16</t>
+  </si>
+  <si>
+    <t>บร2201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">รอลูกค้าติดต่อกลับ 15/6/67
+เข้าซ่อมวันที่ 02/07/2567
 </t>
   </si>
   <si>
-    <t>Z067085441</t>
-  </si>
-  <si>
-    <t>9กภ8851</t>
-  </si>
-  <si>
-    <t>เข้าซ่อมประมาณต้นเดือน เมษายน</t>
-  </si>
-  <si>
-    <t>Z067090650</t>
-  </si>
-  <si>
-    <t>บร1747</t>
-  </si>
-  <si>
-    <t>เข้าซ่อมวันที่ 06-04-2567</t>
-  </si>
-  <si>
-    <t>F067084194</t>
-  </si>
-  <si>
-    <t>กธ998</t>
-  </si>
-  <si>
-    <t>เข้าซ่อมวันที่ 17-04-2567</t>
-  </si>
-  <si>
-    <t>46-AV1-2024-410000227</t>
-  </si>
-  <si>
-    <t>2024-03-19</t>
-  </si>
-  <si>
-    <t>ขค172</t>
-  </si>
-  <si>
-    <t>เข้าซ่อมต้นเดือน เมษายน</t>
-  </si>
-  <si>
-    <t>Z067093626</t>
-  </si>
-  <si>
-    <t>บย6134</t>
-  </si>
-  <si>
-    <t>เข้าซ่อมวันที่ 03-04-2567</t>
-  </si>
-  <si>
-    <t>08953381</t>
-  </si>
-  <si>
-    <t>ขค8258</t>
-  </si>
-  <si>
-    <t>caafwf</t>
-  </si>
-  <si>
-    <t>2024-04-11</t>
-  </si>
-  <si>
-    <t>2024-04-29</t>
-  </si>
-  <si>
-    <t>2024-04-16</t>
-  </si>
-  <si>
-    <t>wfwwwf</t>
-  </si>
-  <si>
-    <t>2024-05-08</t>
-  </si>
-  <si>
-    <t>2024-04-30</t>
-  </si>
-  <si>
-    <t>cwfwfwf</t>
+    <t>Z067173432</t>
+  </si>
+  <si>
+    <t>2024-05-31</t>
+  </si>
+  <si>
+    <t>ก2083</t>
+  </si>
+  <si>
+    <t>02-07-2567 รอลูกค้าติดต่อกลับ</t>
+  </si>
+  <si>
+    <t>67709/รจ/003213</t>
+  </si>
+  <si>
+    <t>2024-06-05</t>
+  </si>
+  <si>
+    <t>ก2569</t>
+  </si>
+  <si>
+    <t>20/06/2567 ลูกค้าไม่รับสาย
+02/07/2567 ลูกค้าไม่รับสาย</t>
+  </si>
+  <si>
+    <t>67709/รจ/003222</t>
+  </si>
+  <si>
+    <t>2024-06-17</t>
+  </si>
+  <si>
+    <t>2024-06-13</t>
+  </si>
+  <si>
+    <t>กพ6365</t>
+  </si>
+  <si>
+    <t>20/06/2567 รอลูกค้าติดต่อกลับ
+02/07/2567 รอลูกค้าติดต่อกลับ</t>
+  </si>
+  <si>
+    <t>DC7066U00281</t>
+  </si>
+  <si>
+    <t>บร846</t>
+  </si>
+  <si>
+    <t>ล้อแม๊ก 1/7/67</t>
+  </si>
+  <si>
+    <t>7066U00591</t>
   </si>
   <si>
     <t>F ดำเนินการซ่อม</t>
   </si>
   <si>
-    <t>67709/รจ/000366</t>
-  </si>
-  <si>
-    <t>2024-01-15</t>
-  </si>
-  <si>
-    <t>2024-01-27</t>
-  </si>
-  <si>
-    <t>1ขง9110</t>
-  </si>
-  <si>
-    <t>เบี้ยอู่ประกันจัดอะไหล่</t>
-  </si>
-  <si>
-    <t>ACD401-24-2-101206</t>
-  </si>
-  <si>
-    <t>2024-03-04</t>
-  </si>
-  <si>
-    <t>2ฒฬ4210</t>
-  </si>
-  <si>
-    <t>เข้าซ่อมวันที่ 13-03-2567</t>
-  </si>
-  <si>
-    <t>F067069391</t>
-  </si>
-  <si>
-    <t>2024-03-01</t>
-  </si>
-  <si>
-    <t>กน2471</t>
-  </si>
-  <si>
-    <t>เข้าซ่อมวันที่ 15-03-2567</t>
-  </si>
-  <si>
-    <t>F067083250</t>
-  </si>
-  <si>
-    <t>2024-03-14</t>
-  </si>
-  <si>
-    <t>บม6855</t>
-  </si>
-  <si>
-    <t>มี 2 เคลม
-เข้าซ่อมวันที่ 25-03-2567</t>
-  </si>
-  <si>
-    <t>Z067086664</t>
-  </si>
-  <si>
-    <t>16040305/66</t>
-  </si>
-  <si>
-    <t>กน9172</t>
-  </si>
-  <si>
-    <t>เข้าซ่อมวันที่ 25-03-2567</t>
-  </si>
-  <si>
-    <t>Z067093485</t>
-  </si>
-  <si>
-    <t>บบ8542</t>
-  </si>
-  <si>
-    <t>ISUZU</t>
-  </si>
-  <si>
-    <t>เข้าซ่อมวันที่ 28-03-2567</t>
-  </si>
-  <si>
-    <t>Z067107393</t>
-  </si>
-  <si>
-    <t>กพ5226</t>
+    <t>F067083067</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>2024-03-21</t>
+  </si>
+  <si>
+    <t>2024-04-06</t>
+  </si>
+  <si>
+    <t>กพ5057</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>ACD401-24-2-102633</t>
+  </si>
+  <si>
+    <t>2024-04-04</t>
+  </si>
+  <si>
+    <t>2024-04-05</t>
+  </si>
+  <si>
+    <t>กพ3084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/06/2567 ลูกค้าไม่รับสาย
+เข้าซ่อมวันที่ 22/06/2567
+</t>
+  </si>
+  <si>
+    <t>A02124V000805</t>
+  </si>
+  <si>
+    <t>2024-06-04</t>
+  </si>
+  <si>
+    <t>2024-05-11</t>
+  </si>
+  <si>
+    <t>2024-05-17</t>
+  </si>
+  <si>
+    <t>7กฉ4864</t>
+  </si>
+  <si>
+    <t>เข้าซ่อมวันที่ 04/06/2567</t>
+  </si>
+  <si>
+    <t>Z067172793</t>
+  </si>
+  <si>
+    <t>2024-05-25</t>
+  </si>
+  <si>
+    <t>2024-05-29</t>
+  </si>
+  <si>
+    <t>กน2699</t>
+  </si>
+  <si>
+    <t>20/06/2567 ลูกค้าไม่รับสาย
+เข้าซ่อมวันที่ 03/07/2567</t>
+  </si>
+  <si>
+    <t>Z067175454</t>
+  </si>
+  <si>
+    <t>2024-06-07</t>
+  </si>
+  <si>
+    <t>กพ5729</t>
+  </si>
+  <si>
+    <t>นัดหมาย7/6/67
+รอลูกค้าเข้ามาอีกครั้ง 15/6/67</t>
+  </si>
+  <si>
+    <t>AB012B003537</t>
+  </si>
+  <si>
+    <t>กบ7755</t>
+  </si>
+  <si>
+    <t>2024-06-16</t>
+  </si>
+  <si>
+    <t>byd ส่ง นัดหมาย 17/6</t>
+  </si>
+  <si>
+    <t>F067182502</t>
+  </si>
+  <si>
+    <t>กพ707</t>
+  </si>
+  <si>
+    <t>เข้าซ่อมวันที่ 24/06/2567</t>
+  </si>
+  <si>
+    <t>67701/รจ/009543</t>
+  </si>
+  <si>
+    <t>2ฒภ4246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">รอลูกค้าติดต่อกลับ 15-6-67
+/20-06-2567 รอลูกค้าติดต่อกลับ
+/เข้าซ่อมวันที่ 03-07-2567
+</t>
+  </si>
+  <si>
+    <t>ACD401-24-2-104357</t>
+  </si>
+  <si>
+    <t>2024-06-12</t>
+  </si>
+  <si>
+    <t>2024-06-14</t>
+  </si>
+  <si>
+    <t>บย5147</t>
+  </si>
+  <si>
+    <t>20-06-2567 รอลูกค้าติดต่อกลับ
+/เข้าซ่อมวันที่ 03-07-2567</t>
+  </si>
+  <si>
+    <t>F067189178</t>
+  </si>
+  <si>
+    <t>ก2181</t>
+  </si>
+  <si>
+    <t>เข้าซ่อมวันที่ 25/06/2567</t>
+  </si>
+  <si>
+    <t>F067189910</t>
+  </si>
+  <si>
+    <t>กท7926</t>
+  </si>
+  <si>
+    <t>46-AV1-2024-460000261</t>
+  </si>
+  <si>
+    <t>กธ9016</t>
+  </si>
+  <si>
+    <t>I24062326</t>
+  </si>
+  <si>
+    <t>บย6228</t>
+  </si>
+  <si>
+    <t>Z067203754</t>
+  </si>
+  <si>
+    <t>กน6326</t>
+  </si>
+  <si>
+    <t>DD 3000</t>
   </si>
 </sst>
 </file>
@@ -1197,10 +1154,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z77"/>
+  <dimension ref="A1:Z69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:Y77"/>
+      <selection activeCell="A2" sqref="A2:Y69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1374,13 +1331,13 @@
         <v>32</v>
       </c>
       <c r="K4" s="2">
-        <v>18564.85</v>
+        <v>33332.91</v>
       </c>
       <c r="L4" s="2">
-        <v>22610.0</v>
+        <v>24905.0</v>
       </c>
       <c r="M4" s="2">
-        <v>41174.85</v>
+        <v>58237.91</v>
       </c>
       <c r="N4" s="2">
         <v>0.0</v>
@@ -1423,14 +1380,14 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
-        <v>240304957</v>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>29</v>
@@ -1446,19 +1403,19 @@
         <v>29</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K5" s="2">
-        <v>6230.5</v>
+        <v>0.0</v>
       </c>
       <c r="L5" s="2">
-        <v>9945.0</v>
+        <v>600.0</v>
       </c>
       <c r="M5" s="2">
-        <v>16175.5</v>
+        <v>600.0</v>
       </c>
       <c r="N5" s="2">
         <v>0.0</v>
@@ -1470,7 +1427,7 @@
         <v>0.0</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2">
@@ -1494,7 +1451,7 @@
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -1502,13 +1459,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>29</v>
@@ -1524,31 +1481,31 @@
         <v>29</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>4800.0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>4800.0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="2">
-        <v>10200.0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>739.5</v>
-      </c>
-      <c r="M6" s="2">
-        <v>10939.5</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2">
@@ -1570,9 +1527,11 @@
       <c r="X6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="Z6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1580,13 +1539,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>29</v>
@@ -1596,25 +1555,25 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K7" s="2">
-        <v>26613.5</v>
+        <v>1680.0</v>
       </c>
       <c r="L7" s="2">
-        <v>6120.0</v>
+        <v>935.0</v>
       </c>
       <c r="M7" s="2">
-        <v>32733.5</v>
+        <v>2615.0</v>
       </c>
       <c r="N7" s="2">
         <v>0.0</v>
@@ -1626,7 +1585,7 @@
         <v>0.0</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2">
@@ -1650,7 +1609,7 @@
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1658,13 +1617,11 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>29</v>
@@ -1674,25 +1631,23 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K8" s="2">
-        <v>234.6</v>
+        <v>2308.6</v>
       </c>
       <c r="L8" s="2">
-        <v>4675.0</v>
+        <v>255.0</v>
       </c>
       <c r="M8" s="2">
-        <v>4909.6</v>
+        <v>2563.6</v>
       </c>
       <c r="N8" s="2">
         <v>0.0</v>
@@ -1704,45 +1659,39 @@
         <v>0.0</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2">
         <v>0.0</v>
       </c>
-      <c r="T8" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="T8" s="2"/>
       <c r="U8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V8" s="2">
         <f>IFERROR(IF(U8="0000-00-00",NOW()-T8,U8-T8),0)</f>
-        <v>0</v>
+        <v>45476.512708333</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
-        <v>240305438</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>29</v>
@@ -1752,25 +1701,23 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K9" s="2">
-        <v>7269.2</v>
+        <v>13893.34</v>
       </c>
       <c r="L9" s="2">
-        <v>8627.5</v>
+        <v>13889.0</v>
       </c>
       <c r="M9" s="2">
-        <v>15896.7</v>
+        <v>27782.34</v>
       </c>
       <c r="N9" s="2">
         <v>0.0</v>
@@ -1788,25 +1735,21 @@
       <c r="S9" s="2">
         <v>0.0</v>
       </c>
-      <c r="T9" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="T9" s="2"/>
       <c r="U9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V9" s="2">
         <f>IFERROR(IF(U9="0000-00-00",NOW()-T9,U9-T9),0)</f>
-        <v>0</v>
+        <v>45476.512708333</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1814,13 +1757,11 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>29</v>
@@ -1830,25 +1771,23 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K10" s="2">
-        <v>27338.3</v>
+        <v>2308.6</v>
       </c>
       <c r="L10" s="2">
-        <v>29055.0</v>
+        <v>255.0</v>
       </c>
       <c r="M10" s="2">
-        <v>56393.3</v>
+        <v>2563.6</v>
       </c>
       <c r="N10" s="2">
         <v>0.0</v>
@@ -1866,25 +1805,21 @@
       <c r="S10" s="2">
         <v>0.0</v>
       </c>
-      <c r="T10" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="T10" s="2"/>
       <c r="U10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V10" s="2">
         <f>IFERROR(IF(U10="0000-00-00",NOW()-T10,U10-T10),0)</f>
-        <v>0</v>
+        <v>45476.512708333</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1892,13 +1827,11 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>29</v>
@@ -1908,25 +1841,23 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K11" s="2">
-        <v>0.0</v>
+        <v>9950.95</v>
       </c>
       <c r="L11" s="2">
-        <v>9588.0</v>
+        <v>6273.0</v>
       </c>
       <c r="M11" s="2">
-        <v>9588.0</v>
+        <v>16223.95</v>
       </c>
       <c r="N11" s="2">
         <v>0.0</v>
@@ -1938,31 +1869,27 @@
         <v>0.0</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2">
         <v>0.0</v>
       </c>
-      <c r="T11" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="T11" s="2"/>
       <c r="U11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V11" s="2">
         <f>IFERROR(IF(U11="0000-00-00",NOW()-T11,U11-T11),0)</f>
-        <v>0</v>
+        <v>45476.512708333</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1970,13 +1897,11 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>29</v>
@@ -1986,25 +1911,23 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K12" s="2">
-        <v>1033.6</v>
+        <v>854.25</v>
       </c>
       <c r="L12" s="2">
-        <v>6553.5</v>
+        <v>255.0</v>
       </c>
       <c r="M12" s="2">
-        <v>7587.1</v>
+        <v>1109.25</v>
       </c>
       <c r="N12" s="2">
         <v>0.0</v>
@@ -2016,189 +1939,201 @@
         <v>0.0</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2">
         <v>0.0</v>
       </c>
-      <c r="T12" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="T12" s="2"/>
       <c r="U12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V12" s="2">
         <f>IFERROR(IF(U12="0000-00-00",NOW()-T12,U12-T12),0)</f>
-        <v>0</v>
+        <v>45476.512708333</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="2">
-        <f>IFERROR(IF(E13="0000-00-00",NOW()-D13,E13-D13),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="A13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="2">
+        <f>IFERROR(IF(E14="0000-00-00",NOW()-D14,E14-D14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>9477.5</v>
+      </c>
+      <c r="M14" s="2">
+        <v>9477.5</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>9010.0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>9010.0</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V14" s="2">
+        <f>IFERROR(IF(U14="0000-00-00",NOW()-T14,U14-T14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="2">
-        <v>19147.95</v>
-      </c>
-      <c r="L13" s="2">
-        <v>8993.0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>28140.95</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="Q13" s="2" t="s">
+      <c r="X14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z14" t="s">
         <v>40</v>
       </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V13" s="2">
-        <f>IFERROR(IF(U13="0000-00-00",NOW()-T13,U13-T13),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y13" s="2"/>
-      <c r="Z13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="F15" s="2">
         <f>IFERROR(IF(E15="0000-00-00",NOW()-D15,E15-D15),0)</f>
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I15" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="K15" s="2">
         <v>0.0</v>
       </c>
       <c r="L15" s="2">
-        <v>0.0</v>
+        <v>10235.0</v>
       </c>
       <c r="M15" s="2">
-        <v>0.0</v>
+        <v>10235.0</v>
       </c>
       <c r="N15" s="2">
         <v>0.0</v>
       </c>
       <c r="O15" s="2">
-        <v>0.0</v>
+        <v>10235.0</v>
       </c>
       <c r="P15" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="Q15" s="2"/>
+        <v>10235.0</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2">
         <v>0.0</v>
       </c>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
+      <c r="T15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="V15" s="2">
         <f>IFERROR(IF(U15="0000-00-00",NOW()-T15,U15-T15),0)</f>
         <v>0</v>
@@ -2206,173 +2141,136 @@
       <c r="W15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="X15" s="2"/>
+      <c r="X15" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="Y15" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="Z15" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="F16" s="2">
         <f>IFERROR(IF(E16="0000-00-00",NOW()-D16,E16-D16),0)</f>
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="K16" s="2">
         <v>0.0</v>
       </c>
       <c r="L16" s="2">
-        <v>0.0</v>
+        <v>2500.0</v>
       </c>
       <c r="M16" s="2">
-        <v>0.0</v>
+        <v>2500.0</v>
       </c>
       <c r="N16" s="2">
         <v>0.0</v>
       </c>
       <c r="O16" s="2">
-        <v>0.0</v>
+        <v>2500.0</v>
       </c>
       <c r="P16" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="Q16" s="2"/>
+        <v>2500.0</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="R16" s="2"/>
       <c r="S16" s="2">
         <v>0.0</v>
       </c>
       <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
+      <c r="U16" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="V16" s="2">
         <f>IFERROR(IF(U16="0000-00-00",NOW()-T16,U16-T16),0)</f>
-        <v>0</v>
+        <v>45476.512708333</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X16" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="Y16" s="2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="Z16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="2">
-        <v>3</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="2">
-        <f>IFERROR(IF(E17="0000-00-00",NOW()-D17,E17-D17),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>9350.0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>9350.0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>6230.0</v>
-      </c>
-      <c r="P17" s="2">
-        <v>6230.0</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V17" s="2">
-        <f>IFERROR(IF(U17="0000-00-00",NOW()-T17,U17-T17),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>37</v>
-      </c>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="2">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>240304957</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F18" s="2">
         <f>IFERROR(IF(E18="0000-00-00",NOW()-D18,E18-D18),0)</f>
@@ -2385,31 +2283,31 @@
         <v>29</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K18" s="2">
-        <v>0.0</v>
+        <v>6230.5</v>
       </c>
       <c r="L18" s="2">
-        <v>9477.5</v>
+        <v>9945.0</v>
       </c>
       <c r="M18" s="2">
-        <v>9477.5</v>
+        <v>16175.5</v>
       </c>
       <c r="N18" s="2">
-        <v>0.0</v>
+        <v>6230.5</v>
       </c>
       <c r="O18" s="2">
-        <v>9010.0</v>
+        <v>7012.5</v>
       </c>
       <c r="P18" s="2">
-        <v>9010.0</v>
+        <v>13243.0</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="2">
@@ -2432,64 +2330,64 @@
         <v>29</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Z18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F19" s="2">
         <f>IFERROR(IF(E19="0000-00-00",NOW()-D19,E19-D19),0)</f>
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="K19" s="2">
-        <v>14767.9</v>
+        <v>0.0</v>
       </c>
       <c r="L19" s="2">
-        <v>25580.0</v>
+        <v>8600.0</v>
       </c>
       <c r="M19" s="2">
-        <v>40347.9</v>
+        <v>8600.0</v>
       </c>
       <c r="N19" s="2">
-        <v>14767.9</v>
+        <v>0.0</v>
       </c>
       <c r="O19" s="2">
-        <v>25580.0</v>
+        <v>8600.0</v>
       </c>
       <c r="P19" s="2">
-        <v>40347.9</v>
+        <v>8600.0</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="2">
@@ -2512,64 +2410,62 @@
         <v>29</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="Z19" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F20" s="2">
         <f>IFERROR(IF(E20="0000-00-00",NOW()-D20,E20-D20),0)</f>
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="J20" s="2"/>
       <c r="K20" s="2">
-        <v>0.0</v>
+        <v>1320.0</v>
       </c>
       <c r="L20" s="2">
-        <v>3952.5</v>
+        <v>29007.5</v>
       </c>
       <c r="M20" s="2">
-        <v>3952.5</v>
+        <v>30327.5</v>
       </c>
       <c r="N20" s="2">
-        <v>0.0</v>
+        <v>600.0</v>
       </c>
       <c r="O20" s="2">
-        <v>2336.45</v>
+        <v>14018.68</v>
       </c>
       <c r="P20" s="2">
-        <v>2336.45</v>
+        <v>14618.68</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="R20" s="2"/>
       <c r="S20" s="2">
@@ -2591,91 +2487,154 @@
       <c r="X20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y20" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="2">
+        <f>IFERROR(IF(E21="0000-00-00",NOW()-D21,E21-D21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>3055.0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>3055.0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>3055.0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>3055.0</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="S21" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V21" s="2">
+        <f>IFERROR(IF(U21="0000-00-00",NOW()-T21,U21-T21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="F22" s="2">
         <f>IFERROR(IF(E22="0000-00-00",NOW()-D22,E22-D22),0)</f>
         <v>0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I22" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K22" s="2">
-        <v>0.0</v>
+        <v>612.0</v>
       </c>
       <c r="L22" s="2">
-        <v>0.0</v>
+        <v>10405.0</v>
       </c>
       <c r="M22" s="2">
-        <v>0.0</v>
+        <v>11017.0</v>
       </c>
       <c r="N22" s="2">
-        <v>0.0</v>
+        <v>612.0</v>
       </c>
       <c r="O22" s="2">
-        <v>0.0</v>
+        <v>10405.0</v>
       </c>
       <c r="P22" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="Q22" s="2"/>
+        <v>11017.0</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="R22" s="2"/>
       <c r="S22" s="2">
         <v>0.0</v>
       </c>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
+      <c r="T22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="V22" s="2">
         <f>IFERROR(IF(U22="0000-00-00",NOW()-T22,U22-T22),0)</f>
         <v>0</v>
@@ -2683,63 +2642,77 @@
       <c r="W22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="X22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F23" s="2">
         <f>IFERROR(IF(E23="0000-00-00",NOW()-D23,E23-D23),0)</f>
         <v>0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I23" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K23" s="2">
-        <v>0.0</v>
+        <v>20747.74</v>
       </c>
       <c r="L23" s="2">
-        <v>0.0</v>
+        <v>44795.0</v>
       </c>
       <c r="M23" s="2">
-        <v>0.0</v>
+        <v>65542.74</v>
       </c>
       <c r="N23" s="2">
-        <v>0.0</v>
+        <v>20747.74</v>
       </c>
       <c r="O23" s="2">
-        <v>0.0</v>
+        <v>42925.0</v>
       </c>
       <c r="P23" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="Q23" s="2"/>
+        <v>63672.74</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="R23" s="2"/>
       <c r="S23" s="2">
         <v>0.0</v>
       </c>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
+      <c r="T23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="V23" s="2">
         <f>IFERROR(IF(U23="0000-00-00",NOW()-T23,U23-T23),0)</f>
         <v>0</v>
@@ -2747,24 +2720,30 @@
       <c r="W23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="X23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F24" s="2">
         <f>IFERROR(IF(E24="0000-00-00",NOW()-D24,E24-D24),0)</f>
         <v>0</v>
@@ -2772,38 +2751,46 @@
       <c r="G24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I24" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="K24" s="2">
         <v>0.0</v>
       </c>
       <c r="L24" s="2">
-        <v>0.0</v>
+        <v>8670.0</v>
       </c>
       <c r="M24" s="2">
-        <v>0.0</v>
+        <v>8670.0</v>
       </c>
       <c r="N24" s="2">
         <v>0.0</v>
       </c>
       <c r="O24" s="2">
-        <v>0.0</v>
+        <v>3551.4</v>
       </c>
       <c r="P24" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="Q24" s="2"/>
+        <v>3551.4</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="R24" s="2"/>
       <c r="S24" s="2">
         <v>0.0</v>
       </c>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
+      <c r="T24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="V24" s="2">
         <f>IFERROR(IF(U24="0000-00-00",NOW()-T24,U24-T24),0)</f>
         <v>0</v>
@@ -2811,63 +2798,79 @@
       <c r="W24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="X24" s="2"/>
+      <c r="X24" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="Y24" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Z24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="F25" s="2">
         <f>IFERROR(IF(E25="0000-00-00",NOW()-D25,E25-D25),0)</f>
         <v>0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I25" s="2" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K25" s="2">
-        <v>0.0</v>
+        <v>6470.2</v>
       </c>
       <c r="L25" s="2">
-        <v>0.0</v>
+        <v>20697.5</v>
       </c>
       <c r="M25" s="2">
-        <v>0.0</v>
+        <v>27167.7</v>
       </c>
       <c r="N25" s="2">
-        <v>0.0</v>
+        <v>6470.2</v>
       </c>
       <c r="O25" s="2">
-        <v>0.0</v>
+        <v>20697.5</v>
       </c>
       <c r="P25" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="Q25" s="2"/>
+        <v>27167.7</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="R25" s="2"/>
       <c r="S25" s="2">
         <v>0.0</v>
       </c>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
+      <c r="T25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="V25" s="2">
         <f>IFERROR(IF(U25="0000-00-00",NOW()-T25,U25-T25),0)</f>
         <v>0</v>
@@ -2875,63 +2878,77 @@
       <c r="W25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="X25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="2">
-        <v>5</v>
-      </c>
-      <c r="B26" s="2">
-        <v>32223223</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F26" s="2">
         <f>IFERROR(IF(E26="0000-00-00",NOW()-D26,E26-D26),0)</f>
         <v>0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2">
-        <v>43343</v>
+        <v>47</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K26" s="2">
-        <v>0.0</v>
+        <v>11891.5</v>
       </c>
       <c r="L26" s="2">
-        <v>0.0</v>
+        <v>14620.0</v>
       </c>
       <c r="M26" s="2">
-        <v>0.0</v>
+        <v>26511.5</v>
       </c>
       <c r="N26" s="2">
-        <v>0.0</v>
+        <v>11891.5</v>
       </c>
       <c r="O26" s="2">
-        <v>0.0</v>
+        <v>14620.0</v>
       </c>
       <c r="P26" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="Q26" s="2"/>
+        <v>26511.5</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="R26" s="2"/>
       <c r="S26" s="2">
         <v>0.0</v>
       </c>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
+      <c r="T26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="V26" s="2">
         <f>IFERROR(IF(U26="0000-00-00",NOW()-T26,U26-T26),0)</f>
         <v>0</v>
@@ -2939,29 +2956,29 @@
       <c r="W26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="X26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="F27" s="2">
         <f>IFERROR(IF(E27="0000-00-00",NOW()-D27,E27-D27),0)</f>
@@ -2974,31 +2991,31 @@
         <v>29</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K27" s="2">
-        <v>26546.7</v>
+        <v>8508.5</v>
       </c>
       <c r="L27" s="2">
-        <v>21060.0</v>
+        <v>7990.0</v>
       </c>
       <c r="M27" s="2">
-        <v>47606.7</v>
+        <v>16498.5</v>
       </c>
       <c r="N27" s="2">
-        <v>1004.7</v>
+        <v>0.0</v>
       </c>
       <c r="O27" s="2">
-        <v>22760.0</v>
+        <v>0.0</v>
       </c>
       <c r="P27" s="2">
-        <v>23764.7</v>
+        <v>0.0</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="R27" s="2"/>
       <c r="S27" s="2">
@@ -3020,65 +3037,63 @@
       <c r="X27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y27" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="F28" s="2">
         <f>IFERROR(IF(E28="0000-00-00",NOW()-D28,E28-D28),0)</f>
         <v>0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K28" s="2">
-        <v>1586.1</v>
+        <v>6760.34</v>
       </c>
       <c r="L28" s="2">
-        <v>14875.0</v>
+        <v>3927.0</v>
       </c>
       <c r="M28" s="2">
-        <v>16461.1</v>
+        <v>10687.34</v>
       </c>
       <c r="N28" s="2">
-        <v>1586.1</v>
+        <v>6760.34</v>
       </c>
       <c r="O28" s="2">
-        <v>14365.0</v>
+        <v>3315.0</v>
       </c>
       <c r="P28" s="2">
-        <v>15951.1</v>
+        <v>10075.34</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" s="2">
@@ -3102,61 +3117,61 @@
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="F29" s="2">
         <f>IFERROR(IF(E29="0000-00-00",NOW()-D29,E29-D29),0)</f>
         <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K29" s="2">
-        <v>45813.39</v>
+        <v>7752.5</v>
       </c>
       <c r="L29" s="2">
-        <v>23103.0</v>
+        <v>8585.0</v>
       </c>
       <c r="M29" s="2">
-        <v>68916.39</v>
+        <v>16337.5</v>
       </c>
       <c r="N29" s="2">
-        <v>45813.39</v>
+        <v>7752.5</v>
       </c>
       <c r="O29" s="2">
-        <v>22253.0</v>
+        <v>8585.0</v>
       </c>
       <c r="P29" s="2">
-        <v>68066.39</v>
+        <v>16337.5</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="R29" s="2"/>
       <c r="S29" s="2">
@@ -3178,65 +3193,63 @@
       <c r="X29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y29" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="Y29" s="2"/>
       <c r="Z29" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="F30" s="2">
         <f>IFERROR(IF(E30="0000-00-00",NOW()-D30,E30-D30),0)</f>
         <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K30" s="2">
-        <v>9049.1</v>
+        <v>0.0</v>
       </c>
       <c r="L30" s="2">
-        <v>9520.0</v>
+        <v>1200.0</v>
       </c>
       <c r="M30" s="2">
-        <v>18569.1</v>
+        <v>1200.0</v>
       </c>
       <c r="N30" s="2">
-        <v>9049.1</v>
+        <v>0.0</v>
       </c>
       <c r="O30" s="2">
-        <v>9520.0</v>
+        <v>1020.0</v>
       </c>
       <c r="P30" s="2">
-        <v>18569.1</v>
+        <v>1020.0</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="R30" s="2"/>
       <c r="S30" s="2">
@@ -3258,63 +3271,65 @@
       <c r="X30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y30" s="2"/>
+      <c r="Y30" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="Z30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="F31" s="2">
         <f>IFERROR(IF(E31="0000-00-00",NOW()-D31,E31-D31),0)</f>
         <v>0</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K31" s="2">
-        <v>78117.19</v>
+        <v>0.0</v>
       </c>
       <c r="L31" s="2">
-        <v>67192.5</v>
+        <v>600.0</v>
       </c>
       <c r="M31" s="2">
-        <v>145309.69</v>
+        <v>600.0</v>
       </c>
       <c r="N31" s="2">
-        <v>69044.59</v>
+        <v>0.0</v>
       </c>
       <c r="O31" s="2">
-        <v>66767.5</v>
+        <v>510.0</v>
       </c>
       <c r="P31" s="2">
-        <v>135812.09</v>
+        <v>510.0</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="2">
@@ -3336,63 +3351,65 @@
       <c r="X31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y31" s="2"/>
+      <c r="Y31" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="Z31" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="F32" s="2">
         <f>IFERROR(IF(E32="0000-00-00",NOW()-D32,E32-D32),0)</f>
         <v>0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K32" s="2">
-        <v>0.0</v>
+        <v>3774.0</v>
       </c>
       <c r="L32" s="2">
-        <v>680.0</v>
+        <v>6162.5</v>
       </c>
       <c r="M32" s="2">
-        <v>680.0</v>
+        <v>9936.5</v>
       </c>
       <c r="N32" s="2">
-        <v>0.0</v>
+        <v>3774.0</v>
       </c>
       <c r="O32" s="2">
-        <v>680.0</v>
+        <v>6162.5</v>
       </c>
       <c r="P32" s="2">
-        <v>680.0</v>
+        <v>9936.5</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="R32" s="2"/>
       <c r="S32" s="2">
@@ -3416,61 +3433,61 @@
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:26">
       <c r="A33" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="F33" s="2">
         <f>IFERROR(IF(E33="0000-00-00",NOW()-D33,E33-D33),0)</f>
         <v>0</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K33" s="2">
-        <v>7942.4</v>
+        <v>3336.25</v>
       </c>
       <c r="L33" s="2">
-        <v>20842.0</v>
+        <v>6757.5</v>
       </c>
       <c r="M33" s="2">
-        <v>28784.4</v>
+        <v>10093.75</v>
       </c>
       <c r="N33" s="2">
-        <v>7942.4</v>
+        <v>3336.25</v>
       </c>
       <c r="O33" s="2">
-        <v>8130.84</v>
+        <v>3655.0</v>
       </c>
       <c r="P33" s="2">
-        <v>16073.24</v>
+        <v>6991.25</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="R33" s="2"/>
       <c r="S33" s="2">
@@ -3492,35 +3509,33 @@
       <c r="X33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y33" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="Y33" s="2"/>
       <c r="Z33" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:26">
       <c r="A34" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="F34" s="2">
         <f>IFERROR(IF(E34="0000-00-00",NOW()-D34,E34-D34),0)</f>
         <v>0</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>29</v>
@@ -3529,28 +3544,28 @@
         <v>127</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K34" s="2">
-        <v>79.9</v>
+        <v>2252.5</v>
       </c>
       <c r="L34" s="2">
-        <v>6120.0</v>
+        <v>5695.0</v>
       </c>
       <c r="M34" s="2">
-        <v>6199.9</v>
+        <v>7947.5</v>
       </c>
       <c r="N34" s="2">
-        <v>79.9</v>
+        <v>2252.5</v>
       </c>
       <c r="O34" s="2">
-        <v>6120.0</v>
+        <v>5440.0</v>
       </c>
       <c r="P34" s="2">
-        <v>6199.9</v>
+        <v>7692.5</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2">
@@ -3574,61 +3589,61 @@
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:26">
       <c r="A35" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="F35" s="2">
         <f>IFERROR(IF(E35="0000-00-00",NOW()-D35,E35-D35),0)</f>
         <v>0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="K35" s="2">
-        <v>11021.7</v>
+        <v>10561.0</v>
       </c>
       <c r="L35" s="2">
-        <v>9122.0</v>
+        <v>340.0</v>
       </c>
       <c r="M35" s="2">
-        <v>20143.7</v>
+        <v>10901.0</v>
       </c>
       <c r="N35" s="2">
-        <v>9878.28</v>
+        <v>10561.0</v>
       </c>
       <c r="O35" s="2">
-        <v>9122.0</v>
+        <v>340.0</v>
       </c>
       <c r="P35" s="2">
-        <v>19000.28</v>
+        <v>10901.0</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" s="2">
@@ -3652,24 +3667,24 @@
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:26">
       <c r="A36" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="F36" s="2">
         <f>IFERROR(IF(E36="0000-00-00",NOW()-D36,E36-D36),0)</f>
@@ -3682,31 +3697,31 @@
         <v>29</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K36" s="2">
-        <v>9235.25</v>
+        <v>537.2</v>
       </c>
       <c r="L36" s="2">
-        <v>14747.5</v>
+        <v>7735.0</v>
       </c>
       <c r="M36" s="2">
-        <v>23982.75</v>
+        <v>8272.2</v>
       </c>
       <c r="N36" s="2">
-        <v>9235.25</v>
+        <v>537.2</v>
       </c>
       <c r="O36" s="2">
-        <v>10285.0</v>
+        <v>7735.0</v>
       </c>
       <c r="P36" s="2">
-        <v>19520.25</v>
+        <v>8272.2</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="R36" s="2"/>
       <c r="S36" s="2">
@@ -3729,25 +3744,22 @@
         <v>29</v>
       </c>
       <c r="Y36" s="2"/>
-      <c r="Z36" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="37" spans="1:26">
       <c r="A37" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F37" s="2">
         <f>IFERROR(IF(E37="0000-00-00",NOW()-D37,E37-D37),0)</f>
@@ -3756,110 +3768,104 @@
       <c r="G37" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K37" s="2">
-        <v>5872.65</v>
+        <v>11867.7</v>
       </c>
       <c r="L37" s="2">
-        <v>1326.0</v>
+        <v>21335.0</v>
       </c>
       <c r="M37" s="2">
-        <v>7198.65</v>
+        <v>33202.7</v>
       </c>
       <c r="N37" s="2">
-        <v>5872.65</v>
+        <v>11867.7</v>
       </c>
       <c r="O37" s="2">
-        <v>1326.0</v>
+        <v>18955.0</v>
       </c>
       <c r="P37" s="2">
-        <v>7198.65</v>
+        <v>30822.7</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="R37" s="2"/>
       <c r="S37" s="2">
         <v>0.0</v>
       </c>
-      <c r="T37" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="T37" s="2"/>
       <c r="U37" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V37" s="2">
         <f>IFERROR(IF(U37="0000-00-00",NOW()-T37,U37-T37),0)</f>
-        <v>0</v>
+        <v>45476.512708333</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X37" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:26">
       <c r="A38" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="F38" s="2">
         <f>IFERROR(IF(E38="0000-00-00",NOW()-D38,E38-D38),0)</f>
         <v>0</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K38" s="2">
-        <v>26179.15</v>
+        <v>15243.05</v>
       </c>
       <c r="L38" s="2">
-        <v>11806.5</v>
+        <v>8483.0</v>
       </c>
       <c r="M38" s="2">
-        <v>37985.65</v>
+        <v>23726.05</v>
       </c>
       <c r="N38" s="2">
-        <v>21206.65</v>
+        <v>15243.05</v>
       </c>
       <c r="O38" s="2">
-        <v>9817.5</v>
+        <v>8483.0</v>
       </c>
       <c r="P38" s="2">
-        <v>31024.15</v>
+        <v>23726.05</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>33</v>
@@ -3886,58 +3892,54 @@
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:26">
       <c r="A39" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F39" s="2">
         <f>IFERROR(IF(E39="0000-00-00",NOW()-D39,E39-D39),0)</f>
         <v>0</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K39" s="2">
-        <v>13861.89</v>
+        <v>811.92</v>
       </c>
       <c r="L39" s="2">
-        <v>6613.0</v>
+        <v>16830.0</v>
       </c>
       <c r="M39" s="2">
-        <v>20474.89</v>
+        <v>17641.92</v>
       </c>
       <c r="N39" s="2">
-        <v>13583.85</v>
+        <v>811.92</v>
       </c>
       <c r="O39" s="2">
-        <v>6613.0</v>
+        <v>15580.5</v>
       </c>
       <c r="P39" s="2">
-        <v>20196.85</v>
+        <v>16392.42</v>
       </c>
       <c r="Q39" s="2" t="s">
         <v>33</v>
@@ -3946,235 +3948,176 @@
       <c r="S39" s="2">
         <v>0.0</v>
       </c>
-      <c r="T39" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="T39" s="2"/>
       <c r="U39" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V39" s="2">
         <f>IFERROR(IF(U39="0000-00-00",NOW()-T39,U39-T39),0)</f>
-        <v>0</v>
+        <v>45476.512708333</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X39" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:26">
       <c r="A40" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F40" s="2">
         <f>IFERROR(IF(E40="0000-00-00",NOW()-D40,E40-D40),0)</f>
         <v>0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K40" s="2">
-        <v>8721.85</v>
+        <v>27714.35</v>
       </c>
       <c r="L40" s="2">
-        <v>8500.0</v>
+        <v>9690.0</v>
       </c>
       <c r="M40" s="2">
-        <v>17221.85</v>
+        <v>37404.35</v>
       </c>
       <c r="N40" s="2">
-        <v>4242.35</v>
+        <v>27714.35</v>
       </c>
       <c r="O40" s="2">
-        <v>5355.0</v>
+        <v>9350.0</v>
       </c>
       <c r="P40" s="2">
-        <v>9597.35</v>
+        <v>37064.35</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="R40" s="2"/>
       <c r="S40" s="2">
         <v>0.0</v>
       </c>
-      <c r="T40" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="T40" s="2"/>
       <c r="U40" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V40" s="2">
         <f>IFERROR(IF(U40="0000-00-00",NOW()-T40,U40-T40),0)</f>
-        <v>0</v>
+        <v>45476.512708333</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y40" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="Z40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="2">
-        <v>20</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" s="2">
-        <f>IFERROR(IF(E41="0000-00-00",NOW()-D41,E41-D41),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K41" s="2">
-        <v>4382.6</v>
-      </c>
-      <c r="L41" s="2">
-        <v>459.0</v>
-      </c>
-      <c r="M41" s="2">
-        <v>4841.6</v>
-      </c>
-      <c r="N41" s="2">
-        <v>4382.6</v>
-      </c>
-      <c r="O41" s="2">
-        <v>459.0</v>
-      </c>
-      <c r="P41" s="2">
-        <v>4841.6</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A41" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="U41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V41" s="2">
-        <f>IFERROR(IF(U41="0000-00-00",NOW()-T41,U41-T41),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X41" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
-      <c r="Z41" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="42" spans="1:26">
       <c r="A42" s="2">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="F42" s="2">
         <f>IFERROR(IF(E42="0000-00-00",NOW()-D42,E42-D42),0)</f>
         <v>0</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K42" s="2">
-        <v>2577.2</v>
+        <v>1198.0</v>
       </c>
       <c r="L42" s="2">
-        <v>4080.0</v>
+        <v>10922.5</v>
       </c>
       <c r="M42" s="2">
-        <v>6657.2</v>
+        <v>12120.5</v>
       </c>
       <c r="N42" s="2">
-        <v>2577.2</v>
+        <v>1198.0</v>
       </c>
       <c r="O42" s="2">
-        <v>4080.0</v>
+        <v>9860.0</v>
       </c>
       <c r="P42" s="2">
-        <v>6657.2</v>
+        <v>11058.0</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="R42" s="2"/>
       <c r="S42" s="2">
@@ -4196,63 +4139,65 @@
       <c r="X42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y42" s="2"/>
+      <c r="Y42" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="Z42" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:26">
       <c r="A43" s="2">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="F43" s="2">
         <f>IFERROR(IF(E43="0000-00-00",NOW()-D43,E43-D43),0)</f>
         <v>0</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="K43" s="2">
-        <v>41947.22</v>
+        <v>17748.0</v>
       </c>
       <c r="L43" s="2">
-        <v>17290.0</v>
+        <v>5720.0</v>
       </c>
       <c r="M43" s="2">
-        <v>59237.22</v>
+        <v>23468.0</v>
       </c>
       <c r="N43" s="2">
-        <v>41947.22</v>
+        <v>17748.0</v>
       </c>
       <c r="O43" s="2">
-        <v>17290.0</v>
+        <v>5220.0</v>
       </c>
       <c r="P43" s="2">
-        <v>59237.22</v>
+        <v>22968.0</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="R43" s="2"/>
       <c r="S43" s="2">
@@ -4274,63 +4219,65 @@
       <c r="X43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y43" s="2"/>
+      <c r="Y43" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="Z43" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:26">
       <c r="A44" s="2">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="F44" s="2">
         <f>IFERROR(IF(E44="0000-00-00",NOW()-D44,E44-D44),0)</f>
         <v>0</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K44" s="2">
-        <v>11305.0</v>
+        <v>694.62</v>
       </c>
       <c r="L44" s="2">
-        <v>4003.5</v>
+        <v>18190.0</v>
       </c>
       <c r="M44" s="2">
-        <v>15308.5</v>
+        <v>18884.62</v>
       </c>
       <c r="N44" s="2">
-        <v>11305.0</v>
+        <v>694.62</v>
       </c>
       <c r="O44" s="2">
-        <v>4003.5</v>
+        <v>18190.0</v>
       </c>
       <c r="P44" s="2">
-        <v>15308.5</v>
+        <v>18884.62</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="R44" s="2"/>
       <c r="S44" s="2">
@@ -4352,24 +4299,28 @@
       <c r="X44" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y44" s="2"/>
+      <c r="Y44" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="Z44" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:26">
       <c r="A45" s="2">
-        <v>24</v>
-      </c>
-      <c r="B45" s="2">
-        <v>12121</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="D45" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F45" s="2">
         <f>IFERROR(IF(E45="0000-00-00",NOW()-D45,E45-D45),0)</f>
@@ -4379,41 +4330,45 @@
         <v>30</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="K45" s="2">
-        <v>0.0</v>
+        <v>3678.6</v>
       </c>
       <c r="L45" s="2">
-        <v>0.0</v>
+        <v>4420.0</v>
       </c>
       <c r="M45" s="2">
-        <v>0.0</v>
+        <v>8098.6</v>
       </c>
       <c r="N45" s="2">
-        <v>0.0</v>
+        <v>3678.6</v>
       </c>
       <c r="O45" s="2">
-        <v>0.0</v>
+        <v>3995.0</v>
       </c>
       <c r="P45" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="Q45" s="2"/>
+        <v>7673.6</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="R45" s="2"/>
       <c r="S45" s="2">
         <v>0.0</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="U45" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="V45" s="2">
         <f>IFERROR(IF(U45="0000-00-00",NOW()-T45,U45-T45),0)</f>
         <v>0</v>
@@ -4422,96 +4377,143 @@
         <v>30</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="Y45" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Z45" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:26">
-      <c r="A46" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
+      <c r="A46" s="2">
+        <v>5</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" s="2">
+        <f>IFERROR(IF(E46="0000-00-00",NOW()-D46,E46-D46),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
+      <c r="I46" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K46" s="2">
+        <v>3898.95</v>
+      </c>
+      <c r="L46" s="2">
+        <v>4965.0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>8863.95</v>
+      </c>
+      <c r="N46" s="2">
+        <v>3898.95</v>
+      </c>
+      <c r="O46" s="2">
+        <v>4465.0</v>
+      </c>
+      <c r="P46" s="2">
+        <v>8363.95</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
+      <c r="S46" s="2">
+        <v>0.0</v>
+      </c>
       <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
+      <c r="U46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V46" s="2">
+        <f>IFERROR(IF(U46="0000-00-00",NOW()-T46,U46-T46),0)</f>
+        <v>45476.512708333</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X46" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y46" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="47" spans="1:26">
       <c r="A47" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F47" s="2">
         <f>IFERROR(IF(E47="0000-00-00",NOW()-D47,E47-D47),0)</f>
         <v>0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K47" s="2">
-        <v>6199.05</v>
+        <v>569.5</v>
       </c>
       <c r="L47" s="2">
-        <v>25245.0</v>
+        <v>4930.0</v>
       </c>
       <c r="M47" s="2">
-        <v>31444.05</v>
+        <v>5499.5</v>
       </c>
       <c r="N47" s="2">
-        <v>6199.05</v>
+        <v>569.5</v>
       </c>
       <c r="O47" s="2">
-        <v>25245.0</v>
+        <v>4930.0</v>
       </c>
       <c r="P47" s="2">
-        <v>31444.05</v>
+        <v>5499.5</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="R47" s="2"/>
       <c r="S47" s="2">
@@ -4534,64 +4536,64 @@
         <v>29</v>
       </c>
       <c r="Y47" s="2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="Z47" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:26">
       <c r="A48" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>165</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F48" s="2">
         <f>IFERROR(IF(E48="0000-00-00",NOW()-D48,E48-D48),0)</f>
         <v>0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K48" s="2">
-        <v>8811.1</v>
+        <v>11101.0</v>
       </c>
       <c r="L48" s="2">
-        <v>16150.0</v>
+        <v>6000.0</v>
       </c>
       <c r="M48" s="2">
-        <v>24961.1</v>
+        <v>17101.0</v>
       </c>
       <c r="N48" s="2">
-        <v>8811.1</v>
+        <v>5525.0</v>
       </c>
       <c r="O48" s="2">
-        <v>16150.0</v>
+        <v>5185.0</v>
       </c>
       <c r="P48" s="2">
-        <v>24961.1</v>
+        <v>10710.0</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="R48" s="2"/>
       <c r="S48" s="2">
@@ -4611,67 +4613,67 @@
         <v>30</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="Y48" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="Z48" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:26">
       <c r="A49" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F49" s="2">
         <f>IFERROR(IF(E49="0000-00-00",NOW()-D49,E49-D49),0)</f>
         <v>0</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K49" s="2">
-        <v>17657.2</v>
+        <v>22584.84</v>
       </c>
       <c r="L49" s="2">
-        <v>15895.0</v>
+        <v>8840.0</v>
       </c>
       <c r="M49" s="2">
-        <v>33552.2</v>
+        <v>31424.84</v>
       </c>
       <c r="N49" s="2">
-        <v>17657.2</v>
+        <v>22584.84</v>
       </c>
       <c r="O49" s="2">
-        <v>15385.0</v>
+        <v>8840.0</v>
       </c>
       <c r="P49" s="2">
-        <v>33042.2</v>
+        <v>31424.84</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="R49" s="2"/>
       <c r="S49" s="2">
@@ -4694,151 +4696,145 @@
         <v>29</v>
       </c>
       <c r="Y49" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Z49" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:26">
       <c r="A50" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F50" s="2">
         <f>IFERROR(IF(E50="0000-00-00",NOW()-D50,E50-D50),0)</f>
         <v>0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K50" s="2">
-        <v>1198.0</v>
+        <v>59273.68</v>
       </c>
       <c r="L50" s="2">
-        <v>10922.5</v>
+        <v>5355.0</v>
       </c>
       <c r="M50" s="2">
-        <v>12120.5</v>
+        <v>64628.68</v>
       </c>
       <c r="N50" s="2">
-        <v>1198.0</v>
+        <v>59273.68</v>
       </c>
       <c r="O50" s="2">
-        <v>9860.0</v>
+        <v>4845.0</v>
       </c>
       <c r="P50" s="2">
-        <v>11058.0</v>
+        <v>64118.68</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="R50" s="2"/>
       <c r="S50" s="2">
         <v>0.0</v>
       </c>
-      <c r="T50" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="T50" s="2"/>
       <c r="U50" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V50" s="2">
         <f>IFERROR(IF(U50="0000-00-00",NOW()-T50,U50-T50),0)</f>
-        <v>0</v>
+        <v>45476.512708333</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X50" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="X50" s="2"/>
       <c r="Y50" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Z50" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:26">
       <c r="A51" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="F51" s="2">
         <f>IFERROR(IF(E51="0000-00-00",NOW()-D51,E51-D51),0)</f>
         <v>0</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="K51" s="2">
-        <v>17748.0</v>
+        <v>5500.0</v>
       </c>
       <c r="L51" s="2">
-        <v>5720.0</v>
+        <v>680.0</v>
       </c>
       <c r="M51" s="2">
-        <v>23468.0</v>
+        <v>6180.0</v>
       </c>
       <c r="N51" s="2">
-        <v>17748.0</v>
+        <v>5500.0</v>
       </c>
       <c r="O51" s="2">
-        <v>5220.0</v>
+        <v>680.0</v>
       </c>
       <c r="P51" s="2">
-        <v>22968.0</v>
+        <v>6180.0</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R51" s="2"/>
       <c r="S51" s="2">
         <v>0.0</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="U51" s="2" t="s">
         <v>29</v>
@@ -4848,68 +4844,70 @@
         <v>0</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="X51" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y51" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="Y51" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="Z51" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:26">
       <c r="A52" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="F52" s="2">
         <f>IFERROR(IF(E52="0000-00-00",NOW()-D52,E52-D52),0)</f>
         <v>0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="K52" s="2">
-        <v>694.62</v>
+        <v>7752.5</v>
       </c>
       <c r="L52" s="2">
-        <v>18190.0</v>
+        <v>8585.0</v>
       </c>
       <c r="M52" s="2">
-        <v>18884.62</v>
+        <v>16337.5</v>
       </c>
       <c r="N52" s="2">
-        <v>694.62</v>
+        <v>7752.5</v>
       </c>
       <c r="O52" s="2">
-        <v>18190.0</v>
+        <v>8585.0</v>
       </c>
       <c r="P52" s="2">
-        <v>18884.62</v>
+        <v>16337.5</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R52" s="2"/>
       <c r="S52" s="2">
@@ -4931,108 +4929,55 @@
       <c r="X52" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y52" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="Y52" s="2"/>
       <c r="Z52" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:26">
-      <c r="A53" s="2">
-        <v>7</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F53" s="2">
-        <f>IFERROR(IF(E53="0000-00-00",NOW()-D53,E53-D53),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K53" s="2">
-        <v>21692.85</v>
-      </c>
-      <c r="L53" s="2">
-        <v>21709.0</v>
-      </c>
-      <c r="M53" s="2">
-        <v>43401.85</v>
-      </c>
-      <c r="N53" s="2">
-        <v>17655.35</v>
-      </c>
-      <c r="O53" s="2">
-        <v>14246.0</v>
-      </c>
-      <c r="P53" s="2">
-        <v>31901.35</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A53" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
-      <c r="S53" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="T53" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="U53" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V53" s="2">
-        <f>IFERROR(IF(U53="0000-00-00",NOW()-T53,U53-T53),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W53" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X53" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y53" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>34</v>
-      </c>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
     </row>
     <row r="54" spans="1:26">
       <c r="A54" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="F54" s="2">
         <f>IFERROR(IF(E54="0000-00-00",NOW()-D54,E54-D54),0)</f>
@@ -5042,41 +4987,41 @@
         <v>30</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K54" s="2">
-        <v>242.25</v>
+        <v>78117.19</v>
       </c>
       <c r="L54" s="2">
-        <v>12716.0</v>
+        <v>67192.5</v>
       </c>
       <c r="M54" s="2">
-        <v>12958.25</v>
+        <v>145309.69</v>
       </c>
       <c r="N54" s="2">
-        <v>242.25</v>
+        <v>69044.59</v>
       </c>
       <c r="O54" s="2">
-        <v>12716.0</v>
+        <v>76372.5</v>
       </c>
       <c r="P54" s="2">
-        <v>12958.25</v>
+        <v>145417.09</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="R54" s="2"/>
       <c r="S54" s="2">
         <v>0.0</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="U54" s="2" t="s">
         <v>29</v>
@@ -5089,64 +5034,62 @@
         <v>30</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y54" s="2" t="s">
-        <v>187</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Y54" s="2"/>
       <c r="Z54" t="s">
-        <v>37</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:26">
       <c r="A55" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="F55" s="2">
         <f>IFERROR(IF(E55="0000-00-00",NOW()-D55,E55-D55),0)</f>
         <v>0</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K55" s="2">
-        <v>19348.55</v>
+        <v>7929.48</v>
       </c>
       <c r="L55" s="2">
-        <v>22287.0</v>
+        <v>3910.0</v>
       </c>
       <c r="M55" s="2">
-        <v>41635.55</v>
+        <v>11839.48</v>
       </c>
       <c r="N55" s="2">
-        <v>19348.55</v>
+        <v>7929.48</v>
       </c>
       <c r="O55" s="2">
-        <v>22287.0</v>
+        <v>3910.0</v>
       </c>
       <c r="P55" s="2">
-        <v>41635.55</v>
+        <v>11839.48</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>33</v>
@@ -5156,7 +5099,7 @@
         <v>0.0</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="U55" s="2" t="s">
         <v>29</v>
@@ -5169,72 +5112,74 @@
         <v>30</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y55" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="Y55" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="Z55" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:26">
       <c r="A56" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="F56" s="2">
         <f>IFERROR(IF(E56="0000-00-00",NOW()-D56,E56-D56),0)</f>
         <v>0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K56" s="2">
-        <v>18439.05</v>
+        <v>136234.49</v>
       </c>
       <c r="L56" s="2">
-        <v>16660.0</v>
+        <v>57415.0</v>
       </c>
       <c r="M56" s="2">
-        <v>35099.05</v>
+        <v>193649.49</v>
       </c>
       <c r="N56" s="2">
-        <v>18439.05</v>
+        <v>139294.49</v>
       </c>
       <c r="O56" s="2">
-        <v>16660.0</v>
+        <v>42030.0</v>
       </c>
       <c r="P56" s="2">
-        <v>35099.05</v>
+        <v>181324.49</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="R56" s="2"/>
       <c r="S56" s="2">
         <v>0.0</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="U56" s="2" t="s">
         <v>29</v>
@@ -5247,74 +5192,74 @@
         <v>30</v>
       </c>
       <c r="X56" s="2" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="Y56" s="2" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="Z56" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:26">
       <c r="A57" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F57" s="2">
         <f>IFERROR(IF(E57="0000-00-00",NOW()-D57,E57-D57),0)</f>
         <v>0</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K57" s="2">
-        <v>2201.5</v>
+        <v>12325.0</v>
       </c>
       <c r="L57" s="2">
-        <v>2635.0</v>
+        <v>36762.5</v>
       </c>
       <c r="M57" s="2">
-        <v>4836.5</v>
+        <v>49087.5</v>
       </c>
       <c r="N57" s="2">
-        <v>2201.5</v>
+        <v>12325.0</v>
       </c>
       <c r="O57" s="2">
-        <v>2635.0</v>
+        <v>36762.5</v>
       </c>
       <c r="P57" s="2">
-        <v>4836.5</v>
+        <v>49087.5</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="R57" s="2"/>
       <c r="S57" s="2">
         <v>0.0</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="U57" s="2" t="s">
         <v>29</v>
@@ -5324,33 +5269,33 @@
         <v>0</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="X57" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="Y57" s="2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="Z57" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:26">
       <c r="A58" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>112</v>
+        <v>213</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c r="F58" s="2">
         <f>IFERROR(IF(E58="0000-00-00",NOW()-D58,E58-D58),0)</f>
@@ -5360,41 +5305,41 @@
         <v>30</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K58" s="2">
-        <v>104382.87</v>
+        <v>1419.5</v>
       </c>
       <c r="L58" s="2">
-        <v>76417.5</v>
+        <v>255.0</v>
       </c>
       <c r="M58" s="2">
-        <v>180800.37</v>
+        <v>1674.5</v>
       </c>
       <c r="N58" s="2">
-        <v>77057.69</v>
+        <v>1419.5</v>
       </c>
       <c r="O58" s="2">
-        <v>55695.0</v>
+        <v>255.0</v>
       </c>
       <c r="P58" s="2">
-        <v>132752.69</v>
+        <v>1674.5</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R58" s="2"/>
       <c r="S58" s="2">
         <v>0.0</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="U58" s="2" t="s">
         <v>29</v>
@@ -5407,74 +5352,74 @@
         <v>30</v>
       </c>
       <c r="X58" s="2" t="s">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="Y58" s="2" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="Z58" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:26">
       <c r="A59" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F59" s="2">
         <f>IFERROR(IF(E59="0000-00-00",NOW()-D59,E59-D59),0)</f>
         <v>0</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K59" s="2">
-        <v>2533.0</v>
+        <v>0.0</v>
       </c>
       <c r="L59" s="2">
-        <v>850.0</v>
+        <v>6630.0</v>
       </c>
       <c r="M59" s="2">
-        <v>3383.0</v>
+        <v>6630.0</v>
       </c>
       <c r="N59" s="2">
-        <v>2533.0</v>
+        <v>0.0</v>
       </c>
       <c r="O59" s="2">
-        <v>204.0</v>
+        <v>6630.0</v>
       </c>
       <c r="P59" s="2">
-        <v>2737.0</v>
+        <v>6630.0</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R59" s="2"/>
       <c r="S59" s="2">
         <v>0.0</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="U59" s="2" t="s">
         <v>29</v>
@@ -5484,67 +5429,67 @@
         <v>0</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="X59" s="2" t="s">
-        <v>29</v>
+        <v>218</v>
       </c>
       <c r="Y59" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="Z59" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:26">
       <c r="A60" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>117</v>
+        <v>182</v>
       </c>
       <c r="F60" s="2">
         <f>IFERROR(IF(E60="0000-00-00",NOW()-D60,E60-D60),0)</f>
         <v>0</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K60" s="2">
-        <v>11027.05</v>
+        <v>100045.09</v>
       </c>
       <c r="L60" s="2">
-        <v>35861.0</v>
+        <v>56312.0</v>
       </c>
       <c r="M60" s="2">
-        <v>46888.05</v>
+        <v>156357.09</v>
       </c>
       <c r="N60" s="2">
-        <v>11027.05</v>
+        <v>100045.09</v>
       </c>
       <c r="O60" s="2">
-        <v>32838.0</v>
+        <v>55312.0</v>
       </c>
       <c r="P60" s="2">
-        <v>43865.05</v>
+        <v>155357.09</v>
       </c>
       <c r="Q60" s="2" t="s">
         <v>33</v>
@@ -5554,7 +5499,7 @@
         <v>0.0</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="U60" s="2" t="s">
         <v>29</v>
@@ -5564,77 +5509,77 @@
         <v>0</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="Y60" s="2" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="Z60" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:26">
       <c r="A61" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="F61" s="2">
         <f>IFERROR(IF(E61="0000-00-00",NOW()-D61,E61-D61),0)</f>
         <v>0</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K61" s="2">
-        <v>1997.5</v>
+        <v>3774.0</v>
       </c>
       <c r="L61" s="2">
-        <v>510.0</v>
+        <v>24692.5</v>
       </c>
       <c r="M61" s="2">
-        <v>2507.5</v>
+        <v>28466.5</v>
       </c>
       <c r="N61" s="2">
-        <v>1997.5</v>
+        <v>3774.0</v>
       </c>
       <c r="O61" s="2">
-        <v>510.0</v>
+        <v>24692.5</v>
       </c>
       <c r="P61" s="2">
-        <v>2507.5</v>
+        <v>28466.5</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="R61" s="2"/>
       <c r="S61" s="2">
         <v>0.0</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="U61" s="2" t="s">
         <v>29</v>
@@ -5644,77 +5589,77 @@
         <v>0</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="X61" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="Y61" s="2" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="Z61" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:26">
       <c r="A62" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>120</v>
+        <v>227</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="F62" s="2">
         <f>IFERROR(IF(E62="0000-00-00",NOW()-D62,E62-D62),0)</f>
         <v>0</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K62" s="2">
-        <v>510.0</v>
+        <v>21304.95</v>
       </c>
       <c r="L62" s="2">
-        <v>9367.0</v>
+        <v>23885.0</v>
       </c>
       <c r="M62" s="2">
-        <v>9877.0</v>
+        <v>45189.95</v>
       </c>
       <c r="N62" s="2">
-        <v>400.0</v>
+        <v>19504.95</v>
       </c>
       <c r="O62" s="2">
-        <v>8003.0</v>
+        <v>21165.0</v>
       </c>
       <c r="P62" s="2">
-        <v>8403.0</v>
+        <v>40669.95</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="R62" s="2"/>
       <c r="S62" s="2">
         <v>0.0</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="U62" s="2" t="s">
         <v>29</v>
@@ -5724,77 +5669,77 @@
         <v>0</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="X62" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="Y62" s="2" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="Z62" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:26">
       <c r="A63" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="F63" s="2">
         <f>IFERROR(IF(E63="0000-00-00",NOW()-D63,E63-D63),0)</f>
         <v>0</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K63" s="2">
-        <v>2599.3</v>
+        <v>61009.26</v>
       </c>
       <c r="L63" s="2">
-        <v>3145.0</v>
+        <v>29433.0</v>
       </c>
       <c r="M63" s="2">
-        <v>5744.3</v>
+        <v>90442.26</v>
       </c>
       <c r="N63" s="2">
-        <v>74.8</v>
+        <v>61009.26</v>
       </c>
       <c r="O63" s="2">
-        <v>3230.0</v>
+        <v>29433.0</v>
       </c>
       <c r="P63" s="2">
-        <v>3304.8</v>
+        <v>90442.26</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="R63" s="2"/>
       <c r="S63" s="2">
         <v>0.0</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="U63" s="2" t="s">
         <v>29</v>
@@ -5804,67 +5749,67 @@
         <v>0</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="X63" s="2" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="Y63" s="2" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="Z63" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="2">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="F64" s="2">
         <f>IFERROR(IF(E64="0000-00-00",NOW()-D64,E64-D64),0)</f>
         <v>0</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K64" s="2">
-        <v>19776.95</v>
+        <v>56772.19</v>
       </c>
       <c r="L64" s="2">
-        <v>28390.0</v>
+        <v>68425.0</v>
       </c>
       <c r="M64" s="2">
-        <v>48166.95</v>
+        <v>125197.19</v>
       </c>
       <c r="N64" s="2">
-        <v>13520.95</v>
+        <v>51701.94</v>
       </c>
       <c r="O64" s="2">
-        <v>21250.0</v>
+        <v>35460.0</v>
       </c>
       <c r="P64" s="2">
-        <v>34770.95</v>
+        <v>87161.94</v>
       </c>
       <c r="Q64" s="2" t="s">
         <v>33</v>
@@ -5874,7 +5819,7 @@
         <v>0.0</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="U64" s="2" t="s">
         <v>29</v>
@@ -5884,77 +5829,75 @@
         <v>0</v>
       </c>
       <c r="W64" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="X64" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y64" s="2" t="s">
-        <v>222</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="Y64" s="2"/>
       <c r="Z64" t="s">
-        <v>34</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F65" s="2">
         <f>IFERROR(IF(E65="0000-00-00",NOW()-D65,E65-D65),0)</f>
         <v>0</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K65" s="2">
-        <v>9091.6</v>
+        <v>7412.0</v>
       </c>
       <c r="L65" s="2">
-        <v>5525.0</v>
+        <v>20740.0</v>
       </c>
       <c r="M65" s="2">
-        <v>14616.6</v>
+        <v>28152.0</v>
       </c>
       <c r="N65" s="2">
-        <v>9091.6</v>
+        <v>7412.0</v>
       </c>
       <c r="O65" s="2">
-        <v>5525.0</v>
+        <v>12070.0</v>
       </c>
       <c r="P65" s="2">
-        <v>14616.6</v>
+        <v>19482.0</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="R65" s="2"/>
       <c r="S65" s="2">
         <v>0.0</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="U65" s="2" t="s">
         <v>29</v>
@@ -5964,819 +5907,236 @@
         <v>0</v>
       </c>
       <c r="W65" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="X65" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="Y65" s="2"/>
       <c r="Z65" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:26">
       <c r="A66" s="2">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="D66" s="2" t="s">
-        <v>226</v>
+        <v>72</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>227</v>
+        <v>70</v>
       </c>
       <c r="F66" s="2">
         <f>IFERROR(IF(E66="0000-00-00",NOW()-D66,E66-D66),0)</f>
         <v>0</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>228</v>
+        <v>50</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K66" s="2">
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="L66" s="2">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="M66" s="2">
-        <v>0.0</v>
+        <v>2900.0</v>
       </c>
       <c r="N66" s="2">
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="O66" s="2">
-        <v>0.0</v>
+        <v>255.0</v>
       </c>
       <c r="P66" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="Q66" s="2"/>
+        <v>2855.0</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="R66" s="2"/>
       <c r="S66" s="2">
         <v>0.0</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="U66" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="U66" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="V66" s="2">
         <f>IFERROR(IF(U66="0000-00-00",NOW()-T66,U66-T66),0)</f>
         <v>0</v>
       </c>
       <c r="W66" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X66" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y66" s="2"/>
+      <c r="Z66" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
+      <c r="A67" s="2">
+        <v>14</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="2">
+        <f>IFERROR(IF(E67="0000-00-00",NOW()-D67,E67-D67),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="X66" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y66" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26">
-      <c r="A67" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
+      <c r="H67" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K67" s="2">
+        <v>47558.2</v>
+      </c>
+      <c r="L67" s="2">
+        <v>64514.5</v>
+      </c>
+      <c r="M67" s="2">
+        <v>112072.7</v>
+      </c>
+      <c r="N67" s="2">
+        <v>47558.2</v>
+      </c>
+      <c r="O67" s="2">
+        <v>62341.5</v>
+      </c>
+      <c r="P67" s="2">
+        <v>109899.7</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="W67" s="2"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
+      <c r="S67" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V67" s="2">
+        <f>IFERROR(IF(U67="0000-00-00",NOW()-T67,U67-T67),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W67" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X67" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y67" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="68" spans="1:26">
-      <c r="A68" s="2">
-        <v>1</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F68" s="2">
-        <f>IFERROR(IF(E68="0000-00-00",NOW()-D68,E68-D68),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K68" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L68" s="2">
-        <v>60044.0</v>
-      </c>
-      <c r="M68" s="2">
-        <v>60044.0</v>
-      </c>
-      <c r="N68" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="O68" s="2">
-        <v>60044.0</v>
-      </c>
-      <c r="P68" s="2">
-        <v>60044.0</v>
-      </c>
-      <c r="Q68" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
-      <c r="S68" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="T68" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="U68" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V68" s="2">
-        <f>IFERROR(IF(U68="0000-00-00",NOW()-T68,U68-T68),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W68" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X68" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y68" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>115</v>
-      </c>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
     </row>
     <row r="69" spans="1:26">
-      <c r="A69" s="2">
-        <v>2</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F69" s="2">
-        <f>IFERROR(IF(E69="0000-00-00",NOW()-D69,E69-D69),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K69" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L69" s="2">
-        <v>79687.5</v>
-      </c>
-      <c r="M69" s="2">
-        <v>79687.5</v>
-      </c>
-      <c r="N69" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="O69" s="2">
-        <v>68892.5</v>
-      </c>
-      <c r="P69" s="2">
-        <v>68892.5</v>
-      </c>
-      <c r="Q69" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="T69" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="U69" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V69" s="2">
-        <f>IFERROR(IF(U69="0000-00-00",NOW()-T69,U69-T69),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W69" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X69" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y69" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26">
-      <c r="A70" s="2">
-        <v>3</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F70" s="2">
-        <f>IFERROR(IF(E70="0000-00-00",NOW()-D70,E70-D70),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K70" s="2">
-        <v>31280.0</v>
-      </c>
-      <c r="L70" s="2">
-        <v>24225.0</v>
-      </c>
-      <c r="M70" s="2">
-        <v>55505.0</v>
-      </c>
-      <c r="N70" s="2">
-        <v>31280.0</v>
-      </c>
-      <c r="O70" s="2">
-        <v>24225.0</v>
-      </c>
-      <c r="P70" s="2">
-        <v>55505.0</v>
-      </c>
-      <c r="Q70" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R70" s="2"/>
-      <c r="S70" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="T70" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="U70" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V70" s="2">
-        <f>IFERROR(IF(U70="0000-00-00",NOW()-T70,U70-T70),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W70" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X70" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y70" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26">
-      <c r="A71" s="2">
-        <v>4</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F71" s="2">
-        <f>IFERROR(IF(E71="0000-00-00",NOW()-D71,E71-D71),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K71" s="2">
-        <v>15756.45</v>
-      </c>
-      <c r="L71" s="2">
-        <v>20825.0</v>
-      </c>
-      <c r="M71" s="2">
-        <v>36581.45</v>
-      </c>
-      <c r="N71" s="2">
-        <v>11693.45</v>
-      </c>
-      <c r="O71" s="2">
-        <v>19805.0</v>
-      </c>
-      <c r="P71" s="2">
-        <v>31498.45</v>
-      </c>
-      <c r="Q71" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R71" s="2"/>
-      <c r="S71" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="T71" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U71" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V71" s="2">
-        <f>IFERROR(IF(U71="0000-00-00",NOW()-T71,U71-T71),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W71" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X71" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y71" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26">
-      <c r="A72" s="2">
-        <v>5</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F72" s="2">
-        <f>IFERROR(IF(E72="0000-00-00",NOW()-D72,E72-D72),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K72" s="2">
-        <v>22556.45</v>
-      </c>
-      <c r="L72" s="2">
-        <v>46240.0</v>
-      </c>
-      <c r="M72" s="2">
-        <v>68796.45</v>
-      </c>
-      <c r="N72" s="2">
-        <v>6525.45</v>
-      </c>
-      <c r="O72" s="2">
-        <v>42245.0</v>
-      </c>
-      <c r="P72" s="2">
-        <v>48770.45</v>
-      </c>
-      <c r="Q72" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R72" s="2"/>
-      <c r="S72" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="T72" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U72" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V72" s="2">
-        <f>IFERROR(IF(U72="0000-00-00",NOW()-T72,U72-T72),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W72" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X72" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y72" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z72" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26">
-      <c r="A73" s="2">
-        <v>6</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F73" s="2">
-        <f>IFERROR(IF(E73="0000-00-00",NOW()-D73,E73-D73),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K73" s="2">
-        <v>16692.0</v>
-      </c>
-      <c r="L73" s="2">
-        <v>6000.0</v>
-      </c>
-      <c r="M73" s="2">
-        <v>22692.0</v>
-      </c>
-      <c r="N73" s="2">
-        <v>16692.0</v>
-      </c>
-      <c r="O73" s="2">
-        <v>6000.0</v>
-      </c>
-      <c r="P73" s="2">
-        <v>22692.0</v>
-      </c>
-      <c r="Q73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R73" s="2"/>
-      <c r="S73" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="T73" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="U73" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V73" s="2">
-        <f>IFERROR(IF(U73="0000-00-00",NOW()-T73,U73-T73),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W73" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X73" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y73" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26">
-      <c r="A74" s="2">
-        <v>7</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F74" s="2">
-        <f>IFERROR(IF(E74="0000-00-00",NOW()-D74,E74-D74),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="K74" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L74" s="2">
-        <v>50022.5</v>
-      </c>
-      <c r="M74" s="2">
-        <v>50022.5</v>
-      </c>
-      <c r="N74" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="O74" s="2">
-        <v>21663.28</v>
-      </c>
-      <c r="P74" s="2">
-        <v>21663.28</v>
-      </c>
-      <c r="Q74" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="T74" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="U74" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V74" s="2">
-        <f>IFERROR(IF(U74="0000-00-00",NOW()-T74,U74-T74),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W74" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X74" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y74" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26">
-      <c r="A75" s="2">
-        <v>8</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F75" s="2">
-        <f>IFERROR(IF(E75="0000-00-00",NOW()-D75,E75-D75),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K75" s="2">
-        <v>3729.8</v>
-      </c>
-      <c r="L75" s="2">
-        <v>13005.0</v>
-      </c>
-      <c r="M75" s="2">
-        <v>16734.8</v>
-      </c>
-      <c r="N75" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="O75" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P75" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="Q75" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="T75" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="U75" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V75" s="2">
-        <f>IFERROR(IF(U75="0000-00-00",NOW()-T75,U75-T75),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W75" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X75" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y75" s="2"/>
-      <c r="Z75" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="76" spans="1:26">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
-      <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="2"/>
-      <c r="X76" s="2"/>
-      <c r="Y76" s="2"/>
-    </row>
-    <row r="77" spans="1:26">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
-      <c r="V77" s="3"/>
-      <c r="W77" s="3"/>
-      <c r="X77" s="3"/>
-      <c r="Y77" s="3"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="A46:M46"/>
-    <mergeCell ref="A67:M67"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="A41:M41"/>
+    <mergeCell ref="A53:M53"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/tmp/reportStatus.xlsx
+++ b/public/tmp/reportStatus.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
   <si>
     <t>#</t>
   </si>
@@ -122,6 +122,15 @@
     <t>M-กลาง</t>
   </si>
   <si>
+    <t>Z067210899</t>
+  </si>
+  <si>
+    <t>กพ3890</t>
+  </si>
+  <si>
+    <t>MITSUBISHI</t>
+  </si>
+  <si>
     <t>Z067211695</t>
   </si>
   <si>
@@ -131,9 +140,6 @@
     <t>กพ7901</t>
   </si>
   <si>
-    <t>MITSUBISHI</t>
-  </si>
-  <si>
     <t>พัชรินทร์ ชุมนาค</t>
   </si>
   <si>
@@ -158,67 +164,31 @@
     <t>2024-06-29</t>
   </si>
   <si>
+    <t>บร3406</t>
+  </si>
+  <si>
+    <t>C ประกันอนุมัติ</t>
+  </si>
+  <si>
+    <t>Z067039619</t>
+  </si>
+  <si>
+    <t>2024-02-09</t>
+  </si>
+  <si>
+    <t>2024-02-05</t>
+  </si>
+  <si>
+    <t>2024-02-08</t>
+  </si>
+  <si>
     <t>ปกติ</t>
   </si>
   <si>
-    <t>บร3406</t>
-  </si>
-  <si>
-    <t>Z067216645</t>
-  </si>
-  <si>
-    <t>2024-07-02</t>
-  </si>
-  <si>
-    <t>บม7013</t>
-  </si>
-  <si>
-    <t>Z067216680</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
-  </si>
-  <si>
-    <t>กธ2286</t>
-  </si>
-  <si>
-    <t>Z067219194</t>
-  </si>
-  <si>
-    <t>กพ5052</t>
-  </si>
-  <si>
-    <t>67701/รจ/011377</t>
-  </si>
-  <si>
-    <t>กธ737</t>
+    <t>บย4037</t>
   </si>
   <si>
     <t>ศุภวัฒน์ หลานเด็น</t>
-  </si>
-  <si>
-    <t>Z067218805</t>
-  </si>
-  <si>
-    <t>2ฒฮ1556</t>
-  </si>
-  <si>
-    <t>C ประกันอนุมัติ</t>
-  </si>
-  <si>
-    <t>Z067039619</t>
-  </si>
-  <si>
-    <t>2024-02-09</t>
-  </si>
-  <si>
-    <t>2024-02-05</t>
-  </si>
-  <si>
-    <t>2024-02-08</t>
-  </si>
-  <si>
-    <t>บย4037</t>
   </si>
   <si>
     <t>09-02-2567 ลูกค้าไม่รับสาย
@@ -256,9 +226,6 @@
     <t>5ขจ3562</t>
   </si>
   <si>
-    <t>เข้าซ่อมวันที่ 03/07/2567</t>
-  </si>
-  <si>
     <t>D รออะไหล่</t>
   </si>
   <si>
@@ -293,21 +260,54 @@
     <t>ประกันจัดอะไหล่</t>
   </si>
   <si>
+    <t>AB012B003537</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>2024-06-04</t>
+  </si>
+  <si>
+    <t>กบ7755</t>
+  </si>
+  <si>
+    <t>2024-06-16</t>
+  </si>
+  <si>
+    <t>byd ส่ง นัดหมาย 17/6</t>
+  </si>
+  <si>
     <t>ACD401-24-2-104202</t>
   </si>
   <si>
     <t>2024-06-11</t>
   </si>
   <si>
-    <t>2024-06-06</t>
-  </si>
-  <si>
     <t>2024-06-10</t>
   </si>
   <si>
     <t>กว3243</t>
   </si>
   <si>
+    <t>F067189910</t>
+  </si>
+  <si>
+    <t>2024-06-15</t>
+  </si>
+  <si>
+    <t>กท7926</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>46-AV1-2024-460000261</t>
+  </si>
+  <si>
+    <t>กธ9016</t>
+  </si>
+  <si>
     <t>AB0923B004953</t>
   </si>
   <si>
@@ -341,6 +341,12 @@
     <t>HONDA</t>
   </si>
   <si>
+    <t>I24062326</t>
+  </si>
+  <si>
+    <t>บย6228</t>
+  </si>
+  <si>
     <t>F067204419</t>
   </si>
   <si>
@@ -419,31 +425,10 @@
     <t>กว4545</t>
   </si>
   <si>
-    <t>Z067210899</t>
-  </si>
-  <si>
-    <t>กพ3890</t>
-  </si>
-  <si>
     <t>Z067211692</t>
   </si>
   <si>
     <t>กน2464</t>
-  </si>
-  <si>
-    <t>67701/รจ/009076</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
-    <t>กพ3789</t>
-  </si>
-  <si>
-    <t>67701/รจ/010622</t>
-  </si>
-  <si>
-    <t>มี2เคลม</t>
   </si>
   <si>
     <t>E อะไหล่ครบ</t>
@@ -529,19 +514,13 @@
     <t>บม1071</t>
   </si>
   <si>
-    <t>2024-07-08</t>
-  </si>
-  <si>
-    <t>10-05-2567 รอลูกค้าติดต่อกลับ
-/เข้าซ่อมวันที่ 31-05-2567
-/20-06-2567 ลูกค้าไม่รับสาย
-/เข้าซ่อมวันที่ 08-07-2567</t>
+    <t>10/05/2567 รอลูกค้าติดต่อกลับ
+เข้าซ่อมวันที่ 31/05/2567
+20/06/2567 ลูกค้าไม่รับสาย
+เข้าซ่อมประมาณปลายเดือน ก.ค 67</t>
   </si>
   <si>
     <t>F067151003</t>
-  </si>
-  <si>
-    <t>2024-06-15</t>
   </si>
   <si>
     <t>2024-05-16</t>
@@ -555,6 +534,21 @@
 </t>
   </si>
   <si>
+    <t>Z067172793</t>
+  </si>
+  <si>
+    <t>2024-05-25</t>
+  </si>
+  <si>
+    <t>2024-05-29</t>
+  </si>
+  <si>
+    <t>กน2699</t>
+  </si>
+  <si>
+    <t>20/06/2567 ลูกค้าไม่รับสาย</t>
+  </si>
+  <si>
     <t>Z067173432</t>
   </si>
   <si>
@@ -564,7 +558,7 @@
     <t>ก2083</t>
   </si>
   <si>
-    <t>02-07-2567 รอลูกค้าติดต่อกลับ</t>
+    <t>รอประกันจัดอะไหล่1รายการนัดหมาย24/6</t>
   </si>
   <si>
     <t>67709/รจ/003213</t>
@@ -576,8 +570,31 @@
     <t>ก2569</t>
   </si>
   <si>
-    <t>20/06/2567 ลูกค้าไม่รับสาย
-02/07/2567 ลูกค้าไม่รับสาย</t>
+    <t>Z067188573</t>
+  </si>
+  <si>
+    <t>2024-06-08</t>
+  </si>
+  <si>
+    <t>2024-06-12</t>
+  </si>
+  <si>
+    <t>กธ9435</t>
+  </si>
+  <si>
+    <t>ประกันจัดอะไหล่ ร้านอาคม
+นัดหมาย 2/7/67</t>
+  </si>
+  <si>
+    <t>67701/รจ/009543</t>
+  </si>
+  <si>
+    <t>2ฒภ4246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">รอลูกค้าติดต่อกลับ 15/6/67
+20/06/2567 รอลูกค้าติดต่อกลับ
+</t>
   </si>
   <si>
     <t>67709/รจ/003222</t>
@@ -592,8 +609,16 @@
     <t>กพ6365</t>
   </si>
   <si>
-    <t>20/06/2567 รอลูกค้าติดต่อกลับ
-02/07/2567 รอลูกค้าติดต่อกลับ</t>
+    <t>20/06/2567 รอลูกค้าติดต่อกลับ</t>
+  </si>
+  <si>
+    <t>ACD401-24-2-104357</t>
+  </si>
+  <si>
+    <t>2024-06-14</t>
+  </si>
+  <si>
+    <t>บย5147</t>
   </si>
   <si>
     <t>DC7066U00281</t>
@@ -602,6 +627,9 @@
     <t>บร846</t>
   </si>
   <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
     <t>ล้อแม๊ก 1/7/67</t>
   </si>
   <si>
@@ -624,9 +652,6 @@
   </si>
   <si>
     <t>กพ5057</t>
-  </si>
-  <si>
-    <t>H2</t>
   </si>
   <si>
     <t>ACD401-24-2-102633</t>
@@ -649,9 +674,6 @@
     <t>A02124V000805</t>
   </si>
   <si>
-    <t>2024-06-04</t>
-  </si>
-  <si>
     <t>2024-05-11</t>
   </si>
   <si>
@@ -662,22 +684,6 @@
   </si>
   <si>
     <t>เข้าซ่อมวันที่ 04/06/2567</t>
-  </si>
-  <si>
-    <t>Z067172793</t>
-  </si>
-  <si>
-    <t>2024-05-25</t>
-  </si>
-  <si>
-    <t>2024-05-29</t>
-  </si>
-  <si>
-    <t>กน2699</t>
-  </si>
-  <si>
-    <t>20/06/2567 ลูกค้าไม่รับสาย
-เข้าซ่อมวันที่ 03/07/2567</t>
   </si>
   <si>
     <t>Z067175454</t>
@@ -693,18 +699,6 @@
 รอลูกค้าเข้ามาอีกครั้ง 15/6/67</t>
   </si>
   <si>
-    <t>AB012B003537</t>
-  </si>
-  <si>
-    <t>กบ7755</t>
-  </si>
-  <si>
-    <t>2024-06-16</t>
-  </si>
-  <si>
-    <t>byd ส่ง นัดหมาย 17/6</t>
-  </si>
-  <si>
     <t>F067182502</t>
   </si>
   <si>
@@ -714,34 +708,6 @@
     <t>เข้าซ่อมวันที่ 24/06/2567</t>
   </si>
   <si>
-    <t>67701/รจ/009543</t>
-  </si>
-  <si>
-    <t>2ฒภ4246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">รอลูกค้าติดต่อกลับ 15-6-67
-/20-06-2567 รอลูกค้าติดต่อกลับ
-/เข้าซ่อมวันที่ 03-07-2567
-</t>
-  </si>
-  <si>
-    <t>ACD401-24-2-104357</t>
-  </si>
-  <si>
-    <t>2024-06-12</t>
-  </si>
-  <si>
-    <t>2024-06-14</t>
-  </si>
-  <si>
-    <t>บย5147</t>
-  </si>
-  <si>
-    <t>20-06-2567 รอลูกค้าติดต่อกลับ
-/เข้าซ่อมวันที่ 03-07-2567</t>
-  </si>
-  <si>
     <t>F067189178</t>
   </si>
   <si>
@@ -749,24 +715,6 @@
   </si>
   <si>
     <t>เข้าซ่อมวันที่ 25/06/2567</t>
-  </si>
-  <si>
-    <t>F067189910</t>
-  </si>
-  <si>
-    <t>กท7926</t>
-  </si>
-  <si>
-    <t>46-AV1-2024-460000261</t>
-  </si>
-  <si>
-    <t>กธ9016</t>
-  </si>
-  <si>
-    <t>I24062326</t>
-  </si>
-  <si>
-    <t>บย6228</t>
   </si>
   <si>
     <t>Z067203754</t>
@@ -1154,10 +1102,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z69"/>
+  <dimension ref="A1:Z63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:Y69"/>
+      <selection activeCell="A2" sqref="A2:Y63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1384,7 +1332,7 @@
         <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>28</v>
@@ -1403,19 +1351,19 @@
         <v>29</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="K5" s="2">
-        <v>0.0</v>
+        <v>11867.7</v>
       </c>
       <c r="L5" s="2">
-        <v>600.0</v>
+        <v>21335.0</v>
       </c>
       <c r="M5" s="2">
-        <v>600.0</v>
+        <v>33202.7</v>
       </c>
       <c r="N5" s="2">
         <v>0.0</v>
@@ -1427,7 +1375,7 @@
         <v>0.0</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2">
@@ -1451,7 +1399,7 @@
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -1459,13 +1407,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>29</v>
@@ -1481,19 +1429,19 @@
         <v>29</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K6" s="2">
         <v>0.0</v>
       </c>
       <c r="L6" s="2">
-        <v>4800.0</v>
+        <v>600.0</v>
       </c>
       <c r="M6" s="2">
-        <v>4800.0</v>
+        <v>600.0</v>
       </c>
       <c r="N6" s="2">
         <v>0.0</v>
@@ -1505,7 +1453,7 @@
         <v>0.0</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2">
@@ -1527,11 +1475,9 @@
       <c r="X6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y6" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1539,13 +1485,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>29</v>
@@ -1555,25 +1501,25 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K7" s="2">
-        <v>1680.0</v>
+        <v>0.0</v>
       </c>
       <c r="L7" s="2">
-        <v>935.0</v>
+        <v>4800.0</v>
       </c>
       <c r="M7" s="2">
-        <v>2615.0</v>
+        <v>4800.0</v>
       </c>
       <c r="N7" s="2">
         <v>0.0</v>
@@ -1585,7 +1531,7 @@
         <v>0.0</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2">
@@ -1607,9 +1553,11 @@
       <c r="X7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="Z7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1617,11 +1565,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>29</v>
@@ -1631,23 +1581,25 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I8" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8" s="2">
-        <v>2308.6</v>
+        <v>1680.0</v>
       </c>
       <c r="L8" s="2">
-        <v>255.0</v>
+        <v>935.0</v>
       </c>
       <c r="M8" s="2">
-        <v>2563.6</v>
+        <v>2615.0</v>
       </c>
       <c r="N8" s="2">
         <v>0.0</v>
@@ -1659,312 +1611,303 @@
         <v>0.0</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2">
         <v>0.0</v>
       </c>
-      <c r="T8" s="2"/>
+      <c r="T8" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="U8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V8" s="2">
         <f>IFERROR(IF(U8="0000-00-00",NOW()-T8,U8-T8),0)</f>
-        <v>45476.512708333</v>
+        <v>0</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X8" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="Y8" s="2"/>
       <c r="Z8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="2">
-        <f>IFERROR(IF(E9="0000-00-00",NOW()-D9,E9-D9),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="2">
-        <v>13893.34</v>
-      </c>
-      <c r="L9" s="2">
-        <v>13889.0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>27782.34</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V9" s="2">
-        <f>IFERROR(IF(U9="0000-00-00",NOW()-T9,U9-T9),0)</f>
-        <v>45476.512708333</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
-      <c r="Z9" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F10" s="2">
         <f>IFERROR(IF(E10="0000-00-00",NOW()-D10,E10-D10),0)</f>
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I10" s="2" t="s">
         <v>56</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10" s="2">
-        <v>2308.6</v>
+        <v>0.0</v>
       </c>
       <c r="L10" s="2">
-        <v>255.0</v>
+        <v>9477.5</v>
       </c>
       <c r="M10" s="2">
-        <v>2563.6</v>
+        <v>9477.5</v>
       </c>
       <c r="N10" s="2">
         <v>0.0</v>
       </c>
       <c r="O10" s="2">
-        <v>0.0</v>
+        <v>9010.0</v>
       </c>
       <c r="P10" s="2">
-        <v>0.0</v>
+        <v>9010.0</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2">
         <v>0.0</v>
       </c>
-      <c r="T10" s="2"/>
+      <c r="T10" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="U10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V10" s="2">
         <f>IFERROR(IF(U10="0000-00-00",NOW()-T10,U10-T10),0)</f>
-        <v>45476.512708333</v>
+        <v>0</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="Z10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="F11" s="2">
         <f>IFERROR(IF(E11="0000-00-00",NOW()-D11,E11-D11),0)</f>
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I11" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11" s="2">
-        <v>9950.95</v>
+        <v>0.0</v>
       </c>
       <c r="L11" s="2">
-        <v>6273.0</v>
+        <v>10235.0</v>
       </c>
       <c r="M11" s="2">
-        <v>16223.95</v>
+        <v>10235.0</v>
       </c>
       <c r="N11" s="2">
         <v>0.0</v>
       </c>
       <c r="O11" s="2">
-        <v>0.0</v>
+        <v>10235.0</v>
       </c>
       <c r="P11" s="2">
-        <v>0.0</v>
+        <v>10235.0</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2">
         <v>0.0</v>
       </c>
-      <c r="T11" s="2"/>
+      <c r="T11" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="U11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V11" s="2">
         <f>IFERROR(IF(U11="0000-00-00",NOW()-T11,U11-T11),0)</f>
-        <v>45476.512708333</v>
+        <v>0</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="Z11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F12" s="2">
         <f>IFERROR(IF(E12="0000-00-00",NOW()-D12,E12-D12),0)</f>
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I12" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12" s="2">
-        <v>854.25</v>
+        <v>0.0</v>
       </c>
       <c r="L12" s="2">
-        <v>255.0</v>
+        <v>2500.0</v>
       </c>
       <c r="M12" s="2">
-        <v>1109.25</v>
+        <v>2500.0</v>
       </c>
       <c r="N12" s="2">
         <v>0.0</v>
       </c>
       <c r="O12" s="2">
-        <v>0.0</v>
+        <v>2500.0</v>
       </c>
       <c r="P12" s="2">
-        <v>0.0</v>
+        <v>2500.0</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2">
         <v>0.0</v>
       </c>
-      <c r="T12" s="2"/>
+      <c r="T12" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="U12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V12" s="2">
         <f>IFERROR(IF(U12="0000-00-00",NOW()-T12,U12-T12),0)</f>
-        <v>45476.512708333</v>
+        <v>0</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X12" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="Y12" s="2"/>
       <c r="Z12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1995,54 +1938,54 @@
       <c r="A14" s="2">
         <v>1</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>63</v>
+      <c r="B14" s="2">
+        <v>240304957</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F14" s="2">
         <f>IFERROR(IF(E14="0000-00-00",NOW()-D14,E14-D14),0)</f>
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K14" s="2">
-        <v>0.0</v>
+        <v>6230.5</v>
       </c>
       <c r="L14" s="2">
-        <v>9477.5</v>
+        <v>9945.0</v>
       </c>
       <c r="M14" s="2">
-        <v>9477.5</v>
+        <v>16175.5</v>
       </c>
       <c r="N14" s="2">
-        <v>0.0</v>
+        <v>6230.5</v>
       </c>
       <c r="O14" s="2">
-        <v>9010.0</v>
+        <v>7012.5</v>
       </c>
       <c r="P14" s="2">
-        <v>9010.0</v>
+        <v>13243.0</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="2">
@@ -2065,10 +2008,10 @@
         <v>29</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="Z14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -2076,53 +2019,53 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F15" s="2">
         <f>IFERROR(IF(E15="0000-00-00",NOW()-D15,E15-D15),0)</f>
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="K15" s="2">
         <v>0.0</v>
       </c>
       <c r="L15" s="2">
-        <v>10235.0</v>
+        <v>8600.0</v>
       </c>
       <c r="M15" s="2">
-        <v>10235.0</v>
+        <v>8600.0</v>
       </c>
       <c r="N15" s="2">
         <v>0.0</v>
       </c>
       <c r="O15" s="2">
-        <v>10235.0</v>
+        <v>8600.0</v>
       </c>
       <c r="P15" s="2">
-        <v>10235.0</v>
+        <v>8600.0</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2">
@@ -2145,10 +2088,10 @@
         <v>29</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -2156,155 +2099,206 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="F16" s="2">
         <f>IFERROR(IF(E16="0000-00-00",NOW()-D16,E16-D16),0)</f>
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I16" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K16" s="2">
         <v>0.0</v>
       </c>
       <c r="L16" s="2">
-        <v>2500.0</v>
+        <v>6630.0</v>
       </c>
       <c r="M16" s="2">
-        <v>2500.0</v>
+        <v>6630.0</v>
       </c>
       <c r="N16" s="2">
         <v>0.0</v>
       </c>
       <c r="O16" s="2">
-        <v>2500.0</v>
+        <v>6630.0</v>
       </c>
       <c r="P16" s="2">
-        <v>2500.0</v>
+        <v>6630.0</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="2">
         <v>0.0</v>
       </c>
-      <c r="T16" s="2"/>
+      <c r="T16" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="U16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V16" s="2">
         <f>IFERROR(IF(U16="0000-00-00",NOW()-T16,U16-T16),0)</f>
-        <v>45476.512708333</v>
+        <v>0</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="Z16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="2">
+        <f>IFERROR(IF(E17="0000-00-00",NOW()-D17,E17-D17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
+      <c r="K17" s="2">
+        <v>1320.0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>29007.5</v>
+      </c>
+      <c r="M17" s="2">
+        <v>30327.5</v>
+      </c>
+      <c r="N17" s="2">
+        <v>600.0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>14018.68</v>
+      </c>
+      <c r="P17" s="2">
+        <v>14618.68</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
+      <c r="S17" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V17" s="2">
+        <f>IFERROR(IF(U17="0000-00-00",NOW()-T17,U17-T17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="Y17" s="2"/>
+      <c r="Z17" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="2">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2">
-        <v>240304957</v>
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F18" s="2">
         <f>IFERROR(IF(E18="0000-00-00",NOW()-D18,E18-D18),0)</f>
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K18" s="2">
-        <v>6230.5</v>
+        <v>56772.19</v>
       </c>
       <c r="L18" s="2">
-        <v>9945.0</v>
+        <v>68425.0</v>
       </c>
       <c r="M18" s="2">
-        <v>16175.5</v>
+        <v>125197.19</v>
       </c>
       <c r="N18" s="2">
-        <v>6230.5</v>
+        <v>51701.94</v>
       </c>
       <c r="O18" s="2">
-        <v>7012.5</v>
+        <v>35460.0</v>
       </c>
       <c r="P18" s="2">
-        <v>13243.0</v>
+        <v>87161.94</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>33</v>
@@ -2329,65 +2323,63 @@
       <c r="X18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y18" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="F19" s="2">
         <f>IFERROR(IF(E19="0000-00-00",NOW()-D19,E19-D19),0)</f>
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="K19" s="2">
-        <v>0.0</v>
+        <v>7412.0</v>
       </c>
       <c r="L19" s="2">
-        <v>8600.0</v>
+        <v>20740.0</v>
       </c>
       <c r="M19" s="2">
-        <v>8600.0</v>
+        <v>28152.0</v>
       </c>
       <c r="N19" s="2">
-        <v>0.0</v>
+        <v>7412.0</v>
       </c>
       <c r="O19" s="2">
-        <v>8600.0</v>
+        <v>12070.0</v>
       </c>
       <c r="P19" s="2">
-        <v>8600.0</v>
+        <v>19482.0</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="2">
@@ -2409,63 +2401,63 @@
       <c r="X19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y19" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="F20" s="2">
         <f>IFERROR(IF(E20="0000-00-00",NOW()-D20,E20-D20),0)</f>
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J20" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="K20" s="2">
-        <v>1320.0</v>
+        <v>0.0</v>
       </c>
       <c r="L20" s="2">
-        <v>29007.5</v>
+        <v>3055.0</v>
       </c>
       <c r="M20" s="2">
-        <v>30327.5</v>
+        <v>3055.0</v>
       </c>
       <c r="N20" s="2">
-        <v>600.0</v>
+        <v>0.0</v>
       </c>
       <c r="O20" s="2">
-        <v>14018.68</v>
+        <v>3055.0</v>
       </c>
       <c r="P20" s="2">
-        <v>14618.68</v>
+        <v>3055.0</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="R20" s="2"/>
       <c r="S20" s="2">
@@ -2487,63 +2479,65 @@
       <c r="X20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y20" s="2"/>
+      <c r="Y20" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="Z20" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F21" s="2">
         <f>IFERROR(IF(E21="0000-00-00",NOW()-D21,E21-D21),0)</f>
         <v>0</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K21" s="2">
-        <v>0.0</v>
+        <v>612.0</v>
       </c>
       <c r="L21" s="2">
-        <v>3055.0</v>
+        <v>10405.0</v>
       </c>
       <c r="M21" s="2">
-        <v>3055.0</v>
+        <v>11017.0</v>
       </c>
       <c r="N21" s="2">
-        <v>0.0</v>
+        <v>612.0</v>
       </c>
       <c r="O21" s="2">
-        <v>3055.0</v>
+        <v>10405.0</v>
       </c>
       <c r="P21" s="2">
-        <v>3055.0</v>
+        <v>11017.0</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R21" s="2"/>
       <c r="S21" s="2">
@@ -2565,65 +2559,63 @@
       <c r="X21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y21" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="F22" s="2">
         <f>IFERROR(IF(E22="0000-00-00",NOW()-D22,E22-D22),0)</f>
         <v>0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22" s="2">
-        <v>612.0</v>
+        <v>20747.74</v>
       </c>
       <c r="L22" s="2">
-        <v>10405.0</v>
+        <v>44795.0</v>
       </c>
       <c r="M22" s="2">
-        <v>11017.0</v>
+        <v>65542.74</v>
       </c>
       <c r="N22" s="2">
-        <v>612.0</v>
+        <v>20747.74</v>
       </c>
       <c r="O22" s="2">
-        <v>10405.0</v>
+        <v>42925.0</v>
       </c>
       <c r="P22" s="2">
-        <v>11017.0</v>
+        <v>63672.74</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R22" s="2"/>
       <c r="S22" s="2">
@@ -2647,61 +2639,61 @@
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="F23" s="2">
         <f>IFERROR(IF(E23="0000-00-00",NOW()-D23,E23-D23),0)</f>
         <v>0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="K23" s="2">
-        <v>20747.74</v>
+        <v>0.0</v>
       </c>
       <c r="L23" s="2">
-        <v>44795.0</v>
+        <v>8670.0</v>
       </c>
       <c r="M23" s="2">
-        <v>65542.74</v>
+        <v>8670.0</v>
       </c>
       <c r="N23" s="2">
-        <v>20747.74</v>
+        <v>0.0</v>
       </c>
       <c r="O23" s="2">
-        <v>42925.0</v>
+        <v>3551.4</v>
       </c>
       <c r="P23" s="2">
-        <v>63672.74</v>
+        <v>3551.4</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="R23" s="2"/>
       <c r="S23" s="2">
@@ -2723,63 +2715,65 @@
       <c r="X23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y23" s="2"/>
+      <c r="Y23" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="Z23" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2">
         <f>IFERROR(IF(E24="0000-00-00",NOW()-D24,E24-D24),0)</f>
         <v>0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="K24" s="2">
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="L24" s="2">
-        <v>8670.0</v>
+        <v>300.0</v>
       </c>
       <c r="M24" s="2">
-        <v>8670.0</v>
+        <v>2900.0</v>
       </c>
       <c r="N24" s="2">
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="O24" s="2">
-        <v>3551.4</v>
+        <v>255.0</v>
       </c>
       <c r="P24" s="2">
-        <v>3551.4</v>
+        <v>2855.0</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R24" s="2"/>
       <c r="S24" s="2">
@@ -2801,44 +2795,42 @@
       <c r="X24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y24" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F25" s="2">
         <f>IFERROR(IF(E25="0000-00-00",NOW()-D25,E25-D25),0)</f>
         <v>0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25" s="2">
         <v>6470.2</v>
@@ -2888,16 +2880,16 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>28</v>
@@ -2907,16 +2899,16 @@
         <v>0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K26" s="2">
         <v>11891.5</v>
@@ -2937,7 +2929,7 @@
         <v>26511.5</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R26" s="2"/>
       <c r="S26" s="2">
@@ -2961,24 +2953,24 @@
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F27" s="2">
         <f>IFERROR(IF(E27="0000-00-00",NOW()-D27,E27-D27),0)</f>
@@ -2991,10 +2983,10 @@
         <v>29</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K27" s="2">
         <v>8508.5</v>
@@ -3015,7 +3007,7 @@
         <v>0.0</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R27" s="2"/>
       <c r="S27" s="2">
@@ -3039,37 +3031,37 @@
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2">
         <f>IFERROR(IF(E28="0000-00-00",NOW()-D28,E28-D28),0)</f>
         <v>0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>32</v>
@@ -3093,7 +3085,7 @@
         <v>10075.34</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" s="2">
@@ -3117,21 +3109,21 @@
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>28</v>
@@ -3141,16 +3133,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K29" s="2">
         <v>7752.5</v>
@@ -3171,7 +3163,7 @@
         <v>16337.5</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R29" s="2"/>
       <c r="S29" s="2">
@@ -3195,15 +3187,15 @@
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>28</v>
@@ -3219,16 +3211,16 @@
         <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K30" s="2">
         <v>0.0</v>
@@ -3249,7 +3241,7 @@
         <v>1020.0</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R30" s="2"/>
       <c r="S30" s="2">
@@ -3272,18 +3264,18 @@
         <v>29</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>28</v>
@@ -3299,16 +3291,16 @@
         <v>0</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K31" s="2">
         <v>0.0</v>
@@ -3329,7 +3321,7 @@
         <v>510.0</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="2">
@@ -3352,18 +3344,18 @@
         <v>29</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Z31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>28</v>
@@ -3379,16 +3371,16 @@
         <v>0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K32" s="2">
         <v>3774.0</v>
@@ -3409,7 +3401,7 @@
         <v>9936.5</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R32" s="2"/>
       <c r="S32" s="2">
@@ -3433,40 +3425,40 @@
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:26">
       <c r="A33" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F33" s="2">
         <f>IFERROR(IF(E33="0000-00-00",NOW()-D33,E33-D33),0)</f>
         <v>0</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K33" s="2">
         <v>3336.25</v>
@@ -3487,7 +3479,7 @@
         <v>6991.25</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R33" s="2"/>
       <c r="S33" s="2">
@@ -3511,40 +3503,40 @@
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:26">
       <c r="A34" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F34" s="2">
         <f>IFERROR(IF(E34="0000-00-00",NOW()-D34,E34-D34),0)</f>
         <v>0</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K34" s="2">
         <v>2252.5</v>
@@ -3565,7 +3557,7 @@
         <v>7692.5</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2">
@@ -3589,40 +3581,40 @@
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:26">
       <c r="A35" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F35" s="2">
         <f>IFERROR(IF(E35="0000-00-00",NOW()-D35,E35-D35),0)</f>
         <v>0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K35" s="2">
         <v>10561.0</v>
@@ -3643,7 +3635,7 @@
         <v>10901.0</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" s="2">
@@ -3667,24 +3659,24 @@
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:26">
       <c r="A36" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F36" s="2">
         <f>IFERROR(IF(E36="0000-00-00",NOW()-D36,E36-D36),0)</f>
@@ -3697,10 +3689,10 @@
         <v>29</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K36" s="2">
         <v>537.2</v>
@@ -3721,7 +3713,7 @@
         <v>8272.2</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R36" s="2"/>
       <c r="S36" s="2">
@@ -3747,51 +3739,53 @@
     </row>
     <row r="37" spans="1:26">
       <c r="A37" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F37" s="2">
         <f>IFERROR(IF(E37="0000-00-00",NOW()-D37,E37-D37),0)</f>
         <v>0</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I37" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K37" s="2">
-        <v>11867.7</v>
+        <v>15243.05</v>
       </c>
       <c r="L37" s="2">
-        <v>21335.0</v>
+        <v>8483.0</v>
       </c>
       <c r="M37" s="2">
-        <v>33202.7</v>
+        <v>23726.05</v>
       </c>
       <c r="N37" s="2">
-        <v>11867.7</v>
+        <v>15243.05</v>
       </c>
       <c r="O37" s="2">
-        <v>18955.0</v>
+        <v>8483.0</v>
       </c>
       <c r="P37" s="2">
-        <v>30822.7</v>
+        <v>23726.05</v>
       </c>
       <c r="Q37" s="2" t="s">
         <v>33</v>
@@ -3800,324 +3794,348 @@
       <c r="S37" s="2">
         <v>0.0</v>
       </c>
-      <c r="T37" s="2"/>
+      <c r="T37" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="U37" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V37" s="2">
         <f>IFERROR(IF(U37="0000-00-00",NOW()-T37,U37-T37),0)</f>
-        <v>45476.512708333</v>
+        <v>0</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="X37" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="2">
-        <v>21</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="2">
-        <f>IFERROR(IF(E38="0000-00-00",NOW()-D38,E38-D38),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K38" s="2">
-        <v>15243.05</v>
-      </c>
-      <c r="L38" s="2">
-        <v>8483.0</v>
-      </c>
-      <c r="M38" s="2">
-        <v>23726.05</v>
-      </c>
-      <c r="N38" s="2">
-        <v>15243.05</v>
-      </c>
-      <c r="O38" s="2">
-        <v>8483.0</v>
-      </c>
-      <c r="P38" s="2">
-        <v>23726.05</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A38" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V38" s="2">
-        <f>IFERROR(IF(U38="0000-00-00",NOW()-T38,U38-T38),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X38" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
-      <c r="Z38" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="39" spans="1:26">
       <c r="A39" s="2">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="D39" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F39" s="2">
         <f>IFERROR(IF(E39="0000-00-00",NOW()-D39,E39-D39),0)</f>
         <v>0</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H39" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I39" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K39" s="2">
-        <v>811.92</v>
+        <v>1198.0</v>
       </c>
       <c r="L39" s="2">
-        <v>16830.0</v>
+        <v>10922.5</v>
       </c>
       <c r="M39" s="2">
-        <v>17641.92</v>
+        <v>12120.5</v>
       </c>
       <c r="N39" s="2">
-        <v>811.92</v>
+        <v>1198.0</v>
       </c>
       <c r="O39" s="2">
-        <v>15580.5</v>
+        <v>9860.0</v>
       </c>
       <c r="P39" s="2">
-        <v>16392.42</v>
+        <v>11058.0</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="2">
         <v>0.0</v>
       </c>
-      <c r="T39" s="2"/>
+      <c r="T39" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="U39" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V39" s="2">
         <f>IFERROR(IF(U39="0000-00-00",NOW()-T39,U39-T39),0)</f>
-        <v>45476.512708333</v>
+        <v>0</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="X39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y39" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="Z39" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:26">
       <c r="A40" s="2">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="D40" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="F40" s="2">
         <f>IFERROR(IF(E40="0000-00-00",NOW()-D40,E40-D40),0)</f>
         <v>0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H40" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I40" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K40" s="2">
-        <v>27714.35</v>
+        <v>17748.0</v>
       </c>
       <c r="L40" s="2">
-        <v>9690.0</v>
+        <v>5720.0</v>
       </c>
       <c r="M40" s="2">
-        <v>37404.35</v>
+        <v>23468.0</v>
       </c>
       <c r="N40" s="2">
-        <v>27714.35</v>
+        <v>17748.0</v>
       </c>
       <c r="O40" s="2">
-        <v>9350.0</v>
+        <v>5220.0</v>
       </c>
       <c r="P40" s="2">
-        <v>37064.35</v>
+        <v>22968.0</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="R40" s="2"/>
       <c r="S40" s="2">
         <v>0.0</v>
       </c>
-      <c r="T40" s="2"/>
+      <c r="T40" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="U40" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V40" s="2">
         <f>IFERROR(IF(U40="0000-00-00",NOW()-T40,U40-T40),0)</f>
-        <v>45476.512708333</v>
+        <v>0</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="Y40" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Z40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="2">
+        <v>3</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="2">
+        <f>IFERROR(IF(E41="0000-00-00",NOW()-D41,E41-D41),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="2">
+        <v>694.62</v>
+      </c>
+      <c r="L41" s="2">
+        <v>18190.0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>18884.62</v>
+      </c>
+      <c r="N41" s="2">
+        <v>694.62</v>
+      </c>
+      <c r="O41" s="2">
+        <v>18190.0</v>
+      </c>
+      <c r="P41" s="2">
+        <v>18884.62</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V41" s="2">
+        <f>IFERROR(IF(U41="0000-00-00",NOW()-T41,U41-T41),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y41" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z41" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" spans="1:26">
-      <c r="A41" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
     </row>
     <row r="42" spans="1:26">
       <c r="A42" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F42" s="2">
         <f>IFERROR(IF(E42="0000-00-00",NOW()-D42,E42-D42),0)</f>
         <v>0</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K42" s="2">
-        <v>1198.0</v>
+        <v>3678.6</v>
       </c>
       <c r="L42" s="2">
-        <v>10922.5</v>
+        <v>4420.0</v>
       </c>
       <c r="M42" s="2">
-        <v>12120.5</v>
+        <v>8098.6</v>
       </c>
       <c r="N42" s="2">
-        <v>1198.0</v>
+        <v>3678.6</v>
       </c>
       <c r="O42" s="2">
-        <v>9860.0</v>
+        <v>3995.0</v>
       </c>
       <c r="P42" s="2">
-        <v>11058.0</v>
+        <v>7673.6</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="R42" s="2"/>
       <c r="S42" s="2">
@@ -4140,64 +4158,64 @@
         <v>29</v>
       </c>
       <c r="Y42" s="2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="Z42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:26">
       <c r="A43" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F43" s="2">
         <f>IFERROR(IF(E43="0000-00-00",NOW()-D43,E43-D43),0)</f>
         <v>0</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K43" s="2">
-        <v>17748.0</v>
+        <v>3898.95</v>
       </c>
       <c r="L43" s="2">
-        <v>5720.0</v>
+        <v>4965.0</v>
       </c>
       <c r="M43" s="2">
-        <v>23468.0</v>
+        <v>8863.95</v>
       </c>
       <c r="N43" s="2">
-        <v>17748.0</v>
+        <v>3898.95</v>
       </c>
       <c r="O43" s="2">
-        <v>5220.0</v>
+        <v>4465.0</v>
       </c>
       <c r="P43" s="2">
-        <v>22968.0</v>
+        <v>8363.95</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R43" s="2"/>
       <c r="S43" s="2">
@@ -4220,64 +4238,64 @@
         <v>29</v>
       </c>
       <c r="Y43" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="Z43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:26">
       <c r="A44" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="F44" s="2">
         <f>IFERROR(IF(E44="0000-00-00",NOW()-D44,E44-D44),0)</f>
         <v>0</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K44" s="2">
-        <v>694.62</v>
+        <v>569.5</v>
       </c>
       <c r="L44" s="2">
-        <v>18190.0</v>
+        <v>4930.0</v>
       </c>
       <c r="M44" s="2">
-        <v>18884.62</v>
+        <v>5499.5</v>
       </c>
       <c r="N44" s="2">
-        <v>694.62</v>
+        <v>569.5</v>
       </c>
       <c r="O44" s="2">
-        <v>18190.0</v>
+        <v>4930.0</v>
       </c>
       <c r="P44" s="2">
-        <v>18884.62</v>
+        <v>5499.5</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R44" s="2"/>
       <c r="S44" s="2">
@@ -4300,61 +4318,61 @@
         <v>29</v>
       </c>
       <c r="Y44" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Z44" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:26">
       <c r="A45" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F45" s="2">
         <f>IFERROR(IF(E45="0000-00-00",NOW()-D45,E45-D45),0)</f>
         <v>0</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K45" s="2">
-        <v>3678.6</v>
+        <v>12325.0</v>
       </c>
       <c r="L45" s="2">
-        <v>4420.0</v>
+        <v>36762.5</v>
       </c>
       <c r="M45" s="2">
-        <v>8098.6</v>
+        <v>49087.5</v>
       </c>
       <c r="N45" s="2">
-        <v>3678.6</v>
+        <v>12325.0</v>
       </c>
       <c r="O45" s="2">
-        <v>3995.0</v>
+        <v>36762.5</v>
       </c>
       <c r="P45" s="2">
-        <v>7673.6</v>
+        <v>49087.5</v>
       </c>
       <c r="Q45" s="2" t="s">
         <v>33</v>
@@ -4380,140 +4398,144 @@
         <v>29</v>
       </c>
       <c r="Y45" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="Z45" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:26">
       <c r="A46" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="F46" s="2">
         <f>IFERROR(IF(E46="0000-00-00",NOW()-D46,E46-D46),0)</f>
         <v>0</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H46" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I46" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K46" s="2">
-        <v>3898.95</v>
+        <v>11101.0</v>
       </c>
       <c r="L46" s="2">
-        <v>4965.0</v>
+        <v>6000.0</v>
       </c>
       <c r="M46" s="2">
-        <v>8863.95</v>
+        <v>17101.0</v>
       </c>
       <c r="N46" s="2">
-        <v>3898.95</v>
+        <v>5525.0</v>
       </c>
       <c r="O46" s="2">
-        <v>4465.0</v>
+        <v>5185.0</v>
       </c>
       <c r="P46" s="2">
-        <v>8363.95</v>
+        <v>10710.0</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="R46" s="2"/>
       <c r="S46" s="2">
         <v>0.0</v>
       </c>
-      <c r="T46" s="2"/>
+      <c r="T46" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="U46" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V46" s="2">
         <f>IFERROR(IF(U46="0000-00-00",NOW()-T46,U46-T46),0)</f>
-        <v>45476.512708333</v>
+        <v>0</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="Y46" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Z46" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:26">
       <c r="A47" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>168</v>
+        <v>61</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F47" s="2">
         <f>IFERROR(IF(E47="0000-00-00",NOW()-D47,E47-D47),0)</f>
         <v>0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K47" s="2">
-        <v>569.5</v>
+        <v>22584.84</v>
       </c>
       <c r="L47" s="2">
-        <v>4930.0</v>
+        <v>8840.0</v>
       </c>
       <c r="M47" s="2">
-        <v>5499.5</v>
+        <v>31424.84</v>
       </c>
       <c r="N47" s="2">
-        <v>569.5</v>
+        <v>22584.84</v>
       </c>
       <c r="O47" s="2">
-        <v>4930.0</v>
+        <v>8840.0</v>
       </c>
       <c r="P47" s="2">
-        <v>5499.5</v>
+        <v>31424.84</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="R47" s="2"/>
       <c r="S47" s="2">
@@ -4536,64 +4558,64 @@
         <v>29</v>
       </c>
       <c r="Y47" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Z47" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:26">
       <c r="A48" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F48" s="2">
         <f>IFERROR(IF(E48="0000-00-00",NOW()-D48,E48-D48),0)</f>
         <v>0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K48" s="2">
-        <v>11101.0</v>
+        <v>0.0</v>
       </c>
       <c r="L48" s="2">
-        <v>6000.0</v>
+        <v>1020.0</v>
       </c>
       <c r="M48" s="2">
-        <v>17101.0</v>
+        <v>1020.0</v>
       </c>
       <c r="N48" s="2">
-        <v>5525.0</v>
+        <v>0.0</v>
       </c>
       <c r="O48" s="2">
-        <v>5185.0</v>
+        <v>1020.0</v>
       </c>
       <c r="P48" s="2">
-        <v>10710.0</v>
+        <v>1020.0</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R48" s="2"/>
       <c r="S48" s="2">
@@ -4613,67 +4635,67 @@
         <v>30</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="Y48" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Z48" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:26">
       <c r="A49" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="F49" s="2">
         <f>IFERROR(IF(E49="0000-00-00",NOW()-D49,E49-D49),0)</f>
         <v>0</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K49" s="2">
-        <v>22584.84</v>
+        <v>3774.0</v>
       </c>
       <c r="L49" s="2">
-        <v>8840.0</v>
+        <v>24692.5</v>
       </c>
       <c r="M49" s="2">
-        <v>31424.84</v>
+        <v>28466.5</v>
       </c>
       <c r="N49" s="2">
-        <v>22584.84</v>
+        <v>3774.0</v>
       </c>
       <c r="O49" s="2">
-        <v>8840.0</v>
+        <v>24692.5</v>
       </c>
       <c r="P49" s="2">
-        <v>31424.84</v>
+        <v>28466.5</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="R49" s="2"/>
       <c r="S49" s="2">
@@ -4696,38 +4718,40 @@
         <v>29</v>
       </c>
       <c r="Y49" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Z49" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:26">
       <c r="A50" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F50" s="2">
         <f>IFERROR(IF(E50="0000-00-00",NOW()-D50,E50-D50),0)</f>
         <v>0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H50" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I50" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>32</v>
@@ -4757,84 +4781,88 @@
       <c r="S50" s="2">
         <v>0.0</v>
       </c>
-      <c r="T50" s="2"/>
+      <c r="T50" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="U50" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V50" s="2">
         <f>IFERROR(IF(U50="0000-00-00",NOW()-T50,U50-T50),0)</f>
-        <v>45476.512708333</v>
+        <v>0</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X50" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="X50" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="Y50" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Z50" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:26">
       <c r="A51" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="F51" s="2">
         <f>IFERROR(IF(E51="0000-00-00",NOW()-D51,E51-D51),0)</f>
         <v>0</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K51" s="2">
-        <v>5500.0</v>
+        <v>21304.95</v>
       </c>
       <c r="L51" s="2">
-        <v>680.0</v>
+        <v>23885.0</v>
       </c>
       <c r="M51" s="2">
-        <v>6180.0</v>
+        <v>45189.95</v>
       </c>
       <c r="N51" s="2">
-        <v>5500.0</v>
+        <v>19504.95</v>
       </c>
       <c r="O51" s="2">
-        <v>680.0</v>
+        <v>21165.0</v>
       </c>
       <c r="P51" s="2">
-        <v>6180.0</v>
+        <v>40669.95</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R51" s="2"/>
       <c r="S51" s="2">
         <v>0.0</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="U51" s="2" t="s">
         <v>29</v>
@@ -4844,70 +4872,70 @@
         <v>0</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="X51" s="2" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="Y51" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Z51" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:26">
       <c r="A52" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F52" s="2">
         <f>IFERROR(IF(E52="0000-00-00",NOW()-D52,E52-D52),0)</f>
         <v>0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K52" s="2">
-        <v>7752.5</v>
+        <v>5500.0</v>
       </c>
       <c r="L52" s="2">
-        <v>8585.0</v>
+        <v>600.0</v>
       </c>
       <c r="M52" s="2">
-        <v>16337.5</v>
+        <v>6100.0</v>
       </c>
       <c r="N52" s="2">
-        <v>7752.5</v>
+        <v>5500.0</v>
       </c>
       <c r="O52" s="2">
-        <v>8585.0</v>
+        <v>680.0</v>
       </c>
       <c r="P52" s="2">
-        <v>16337.5</v>
+        <v>6180.0</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R52" s="2"/>
       <c r="S52" s="2">
@@ -4927,169 +4955,171 @@
         <v>30</v>
       </c>
       <c r="X52" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y52" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="Y52" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="Z52" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:26">
-      <c r="A53" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
+      <c r="A53" s="2">
+        <v>15</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" s="2">
+        <f>IFERROR(IF(E53="0000-00-00",NOW()-D53,E53-D53),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K53" s="2">
+        <v>7752.5</v>
+      </c>
+      <c r="L53" s="2">
+        <v>8585.0</v>
+      </c>
+      <c r="M53" s="2">
+        <v>16337.5</v>
+      </c>
+      <c r="N53" s="2">
+        <v>7752.5</v>
+      </c>
+      <c r="O53" s="2">
+        <v>8585.0</v>
+      </c>
+      <c r="P53" s="2">
+        <v>16337.5</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
+      <c r="S53" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V53" s="2">
+        <f>IFERROR(IF(U53="0000-00-00",NOW()-T53,U53-T53),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="Y53" s="2"/>
+      <c r="Z53" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="54" spans="1:26">
-      <c r="A54" s="2">
-        <v>1</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F54" s="2">
-        <f>IFERROR(IF(E54="0000-00-00",NOW()-D54,E54-D54),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K54" s="2">
-        <v>78117.19</v>
-      </c>
-      <c r="L54" s="2">
-        <v>67192.5</v>
-      </c>
-      <c r="M54" s="2">
-        <v>145309.69</v>
-      </c>
-      <c r="N54" s="2">
-        <v>69044.59</v>
-      </c>
-      <c r="O54" s="2">
-        <v>76372.5</v>
-      </c>
-      <c r="P54" s="2">
-        <v>145417.09</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A54" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
-      <c r="S54" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="T54" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="U54" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V54" s="2">
-        <f>IFERROR(IF(U54="0000-00-00",NOW()-T54,U54-T54),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W54" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X54" s="2" t="s">
-        <v>193</v>
-      </c>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
-      <c r="Z54" t="s">
-        <v>195</v>
-      </c>
     </row>
     <row r="55" spans="1:26">
       <c r="A55" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F55" s="2">
         <f>IFERROR(IF(E55="0000-00-00",NOW()-D55,E55-D55),0)</f>
         <v>0</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K55" s="2">
-        <v>7929.48</v>
+        <v>78117.19</v>
       </c>
       <c r="L55" s="2">
-        <v>3910.0</v>
+        <v>67192.5</v>
       </c>
       <c r="M55" s="2">
-        <v>11839.48</v>
+        <v>145309.69</v>
       </c>
       <c r="N55" s="2">
-        <v>7929.48</v>
+        <v>69044.59</v>
       </c>
       <c r="O55" s="2">
-        <v>3910.0</v>
+        <v>76372.5</v>
       </c>
       <c r="P55" s="2">
-        <v>11839.48</v>
+        <v>145417.09</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>33</v>
@@ -5099,7 +5129,7 @@
         <v>0.0</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="U55" s="2" t="s">
         <v>29</v>
@@ -5112,74 +5142,72 @@
         <v>30</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y55" s="2" t="s">
-        <v>200</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="Y55" s="2"/>
       <c r="Z55" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:26">
       <c r="A56" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F56" s="2">
         <f>IFERROR(IF(E56="0000-00-00",NOW()-D56,E56-D56),0)</f>
         <v>0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K56" s="2">
-        <v>136234.49</v>
+        <v>7929.48</v>
       </c>
       <c r="L56" s="2">
-        <v>57415.0</v>
+        <v>3910.0</v>
       </c>
       <c r="M56" s="2">
-        <v>193649.49</v>
+        <v>11839.48</v>
       </c>
       <c r="N56" s="2">
-        <v>139294.49</v>
+        <v>7929.48</v>
       </c>
       <c r="O56" s="2">
-        <v>42030.0</v>
+        <v>3910.0</v>
       </c>
       <c r="P56" s="2">
-        <v>181324.49</v>
+        <v>11839.48</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="R56" s="2"/>
       <c r="S56" s="2">
         <v>0.0</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="U56" s="2" t="s">
         <v>29</v>
@@ -5192,74 +5220,74 @@
         <v>30</v>
       </c>
       <c r="X56" s="2" t="s">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="Y56" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Z56" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:26">
       <c r="A57" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F57" s="2">
         <f>IFERROR(IF(E57="0000-00-00",NOW()-D57,E57-D57),0)</f>
         <v>0</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K57" s="2">
-        <v>12325.0</v>
+        <v>136234.49</v>
       </c>
       <c r="L57" s="2">
-        <v>36762.5</v>
+        <v>57415.0</v>
       </c>
       <c r="M57" s="2">
-        <v>49087.5</v>
+        <v>193649.49</v>
       </c>
       <c r="N57" s="2">
-        <v>12325.0</v>
+        <v>139294.49</v>
       </c>
       <c r="O57" s="2">
-        <v>36762.5</v>
+        <v>42030.0</v>
       </c>
       <c r="P57" s="2">
-        <v>49087.5</v>
+        <v>181324.49</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="R57" s="2"/>
       <c r="S57" s="2">
         <v>0.0</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="U57" s="2" t="s">
         <v>29</v>
@@ -5269,13 +5297,13 @@
         <v>0</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="X57" s="2" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="Y57" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Z57" t="s">
         <v>102</v>
@@ -5283,19 +5311,19 @@
     </row>
     <row r="58" spans="1:26">
       <c r="A58" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F58" s="2">
         <f>IFERROR(IF(E58="0000-00-00",NOW()-D58,E58-D58),0)</f>
@@ -5305,13 +5333,13 @@
         <v>30</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K58" s="2">
         <v>1419.5</v>
@@ -5332,14 +5360,14 @@
         <v>1674.5</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R58" s="2"/>
       <c r="S58" s="2">
         <v>0.0</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="U58" s="2" t="s">
         <v>29</v>
@@ -5352,74 +5380,74 @@
         <v>30</v>
       </c>
       <c r="X58" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Y58" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Z58" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:26">
       <c r="A59" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="F59" s="2">
         <f>IFERROR(IF(E59="0000-00-00",NOW()-D59,E59-D59),0)</f>
         <v>0</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K59" s="2">
-        <v>0.0</v>
+        <v>100045.09</v>
       </c>
       <c r="L59" s="2">
-        <v>6630.0</v>
+        <v>56312.0</v>
       </c>
       <c r="M59" s="2">
-        <v>6630.0</v>
+        <v>156357.09</v>
       </c>
       <c r="N59" s="2">
-        <v>0.0</v>
+        <v>100045.09</v>
       </c>
       <c r="O59" s="2">
-        <v>6630.0</v>
+        <v>55312.0</v>
       </c>
       <c r="P59" s="2">
-        <v>6630.0</v>
+        <v>155357.09</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R59" s="2"/>
       <c r="S59" s="2">
         <v>0.0</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="U59" s="2" t="s">
         <v>29</v>
@@ -5429,67 +5457,67 @@
         <v>0</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="X59" s="2" t="s">
-        <v>218</v>
+        <v>66</v>
       </c>
       <c r="Y59" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z59" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:26">
       <c r="A60" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>182</v>
+        <v>61</v>
       </c>
       <c r="F60" s="2">
         <f>IFERROR(IF(E60="0000-00-00",NOW()-D60,E60-D60),0)</f>
         <v>0</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K60" s="2">
-        <v>100045.09</v>
+        <v>61009.26</v>
       </c>
       <c r="L60" s="2">
-        <v>56312.0</v>
+        <v>29433.0</v>
       </c>
       <c r="M60" s="2">
-        <v>156357.09</v>
+        <v>90442.26</v>
       </c>
       <c r="N60" s="2">
-        <v>100045.09</v>
+        <v>61009.26</v>
       </c>
       <c r="O60" s="2">
-        <v>55312.0</v>
+        <v>29433.0</v>
       </c>
       <c r="P60" s="2">
-        <v>155357.09</v>
+        <v>90442.26</v>
       </c>
       <c r="Q60" s="2" t="s">
         <v>33</v>
@@ -5499,7 +5527,7 @@
         <v>0.0</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="U60" s="2" t="s">
         <v>29</v>
@@ -5509,13 +5537,13 @@
         <v>0</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="Y60" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z60" t="s">
         <v>102</v>
@@ -5523,63 +5551,63 @@
     </row>
     <row r="61" spans="1:26">
       <c r="A61" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="F61" s="2">
         <f>IFERROR(IF(E61="0000-00-00",NOW()-D61,E61-D61),0)</f>
         <v>0</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K61" s="2">
-        <v>3774.0</v>
+        <v>47558.2</v>
       </c>
       <c r="L61" s="2">
-        <v>24692.5</v>
+        <v>64514.5</v>
       </c>
       <c r="M61" s="2">
-        <v>28466.5</v>
+        <v>112072.7</v>
       </c>
       <c r="N61" s="2">
-        <v>3774.0</v>
+        <v>47558.2</v>
       </c>
       <c r="O61" s="2">
-        <v>24692.5</v>
+        <v>62341.5</v>
       </c>
       <c r="P61" s="2">
-        <v>28466.5</v>
+        <v>109899.7</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R61" s="2"/>
       <c r="S61" s="2">
         <v>0.0</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="U61" s="2" t="s">
         <v>29</v>
@@ -5589,554 +5617,80 @@
         <v>0</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="X61" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="Y61" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Z61" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:26">
-      <c r="A62" s="2">
-        <v>9</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F62" s="2">
-        <f>IFERROR(IF(E62="0000-00-00",NOW()-D62,E62-D62),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K62" s="2">
-        <v>21304.95</v>
-      </c>
-      <c r="L62" s="2">
-        <v>23885.0</v>
-      </c>
-      <c r="M62" s="2">
-        <v>45189.95</v>
-      </c>
-      <c r="N62" s="2">
-        <v>19504.95</v>
-      </c>
-      <c r="O62" s="2">
-        <v>21165.0</v>
-      </c>
-      <c r="P62" s="2">
-        <v>40669.95</v>
-      </c>
-      <c r="Q62" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
-      <c r="S62" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="T62" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U62" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V62" s="2">
-        <f>IFERROR(IF(U62="0000-00-00",NOW()-T62,U62-T62),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W62" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X62" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y62" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>34</v>
-      </c>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
     </row>
     <row r="63" spans="1:26">
-      <c r="A63" s="2">
-        <v>10</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F63" s="2">
-        <f>IFERROR(IF(E63="0000-00-00",NOW()-D63,E63-D63),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K63" s="2">
-        <v>61009.26</v>
-      </c>
-      <c r="L63" s="2">
-        <v>29433.0</v>
-      </c>
-      <c r="M63" s="2">
-        <v>90442.26</v>
-      </c>
-      <c r="N63" s="2">
-        <v>61009.26</v>
-      </c>
-      <c r="O63" s="2">
-        <v>29433.0</v>
-      </c>
-      <c r="P63" s="2">
-        <v>90442.26</v>
-      </c>
-      <c r="Q63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R63" s="2"/>
-      <c r="S63" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="T63" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="U63" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V63" s="2">
-        <f>IFERROR(IF(U63="0000-00-00",NOW()-T63,U63-T63),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W63" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X63" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y63" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26">
-      <c r="A64" s="2">
-        <v>11</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F64" s="2">
-        <f>IFERROR(IF(E64="0000-00-00",NOW()-D64,E64-D64),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K64" s="2">
-        <v>56772.19</v>
-      </c>
-      <c r="L64" s="2">
-        <v>68425.0</v>
-      </c>
-      <c r="M64" s="2">
-        <v>125197.19</v>
-      </c>
-      <c r="N64" s="2">
-        <v>51701.94</v>
-      </c>
-      <c r="O64" s="2">
-        <v>35460.0</v>
-      </c>
-      <c r="P64" s="2">
-        <v>87161.94</v>
-      </c>
-      <c r="Q64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R64" s="2"/>
-      <c r="S64" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="T64" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="U64" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V64" s="2">
-        <f>IFERROR(IF(U64="0000-00-00",NOW()-T64,U64-T64),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W64" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X64" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y64" s="2"/>
-      <c r="Z64" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26">
-      <c r="A65" s="2">
-        <v>12</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F65" s="2">
-        <f>IFERROR(IF(E65="0000-00-00",NOW()-D65,E65-D65),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K65" s="2">
-        <v>7412.0</v>
-      </c>
-      <c r="L65" s="2">
-        <v>20740.0</v>
-      </c>
-      <c r="M65" s="2">
-        <v>28152.0</v>
-      </c>
-      <c r="N65" s="2">
-        <v>7412.0</v>
-      </c>
-      <c r="O65" s="2">
-        <v>12070.0</v>
-      </c>
-      <c r="P65" s="2">
-        <v>19482.0</v>
-      </c>
-      <c r="Q65" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="T65" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U65" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V65" s="2">
-        <f>IFERROR(IF(U65="0000-00-00",NOW()-T65,U65-T65),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W65" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X65" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y65" s="2"/>
-      <c r="Z65" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26">
-      <c r="A66" s="2">
-        <v>13</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F66" s="2">
-        <f>IFERROR(IF(E66="0000-00-00",NOW()-D66,E66-D66),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K66" s="2">
-        <v>2600.0</v>
-      </c>
-      <c r="L66" s="2">
-        <v>300.0</v>
-      </c>
-      <c r="M66" s="2">
-        <v>2900.0</v>
-      </c>
-      <c r="N66" s="2">
-        <v>2600.0</v>
-      </c>
-      <c r="O66" s="2">
-        <v>255.0</v>
-      </c>
-      <c r="P66" s="2">
-        <v>2855.0</v>
-      </c>
-      <c r="Q66" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="T66" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U66" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V66" s="2">
-        <f>IFERROR(IF(U66="0000-00-00",NOW()-T66,U66-T66),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W66" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X66" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y66" s="2"/>
-      <c r="Z66" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26">
-      <c r="A67" s="2">
-        <v>14</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F67" s="2">
-        <f>IFERROR(IF(E67="0000-00-00",NOW()-D67,E67-D67),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K67" s="2">
-        <v>47558.2</v>
-      </c>
-      <c r="L67" s="2">
-        <v>64514.5</v>
-      </c>
-      <c r="M67" s="2">
-        <v>112072.7</v>
-      </c>
-      <c r="N67" s="2">
-        <v>47558.2</v>
-      </c>
-      <c r="O67" s="2">
-        <v>62341.5</v>
-      </c>
-      <c r="P67" s="2">
-        <v>109899.7</v>
-      </c>
-      <c r="Q67" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="T67" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U67" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V67" s="2">
-        <f>IFERROR(IF(U67="0000-00-00",NOW()-T67,U67-T67),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W67" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X67" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y67" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2"/>
-      <c r="W68" s="2"/>
-      <c r="X68" s="2"/>
-      <c r="Y68" s="2"/>
-    </row>
-    <row r="69" spans="1:26">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
-      <c r="V69" s="3"/>
-      <c r="W69" s="3"/>
-      <c r="X69" s="3"/>
-      <c r="Y69" s="3"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A9:M9"/>
     <mergeCell ref="A13:M13"/>
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="A41:M41"/>
-    <mergeCell ref="A53:M53"/>
+    <mergeCell ref="A38:M38"/>
+    <mergeCell ref="A54:M54"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
